--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>55400</v>
+        <v>58100</v>
       </c>
       <c r="E8" s="3">
-        <v>30300</v>
+        <v>31800</v>
       </c>
       <c r="F8" s="3">
-        <v>16100</v>
+        <v>16900</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15700</v>
+        <v>16500</v>
       </c>
       <c r="E9" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="F9" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>39700</v>
+        <v>41600</v>
       </c>
       <c r="E10" s="3">
-        <v>19600</v>
+        <v>20500</v>
       </c>
       <c r="F10" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -806,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>22800</v>
+        <v>23900</v>
       </c>
       <c r="E12" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="F12" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -924,13 +924,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>80000</v>
+        <v>83800</v>
       </c>
       <c r="E17" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="F17" s="3">
-        <v>33700</v>
+        <v>35300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -951,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-23400</v>
-      </c>
       <c r="F18" s="3">
-        <v>-17600</v>
+        <v>-18400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-20000</v>
+        <v>-21000</v>
       </c>
       <c r="E21" s="3">
-        <v>-22200</v>
+        <v>-23200</v>
       </c>
       <c r="F21" s="3">
-        <v>-16000</v>
+        <v>-16700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1072,13 +1072,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24600</v>
+        <v>-25700</v>
       </c>
       <c r="E23" s="3">
-        <v>-25800</v>
+        <v>-27000</v>
       </c>
       <c r="F23" s="3">
-        <v>-19100</v>
+        <v>-20000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24600</v>
+        <v>-25700</v>
       </c>
       <c r="E26" s="3">
-        <v>-25800</v>
+        <v>-27000</v>
       </c>
       <c r="F26" s="3">
-        <v>-19100</v>
+        <v>-20000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1180,13 +1180,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-48500</v>
+        <v>-50800</v>
       </c>
       <c r="E27" s="3">
-        <v>-33700</v>
+        <v>-35300</v>
       </c>
       <c r="F27" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F32" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1342,13 +1342,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-48500</v>
+        <v>-50800</v>
       </c>
       <c r="E33" s="3">
-        <v>-33700</v>
+        <v>-35300</v>
       </c>
       <c r="F33" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-48500</v>
+        <v>-50800</v>
       </c>
       <c r="E35" s="3">
-        <v>-33700</v>
+        <v>-35300</v>
       </c>
       <c r="F35" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13700</v>
+        <v>14300</v>
       </c>
       <c r="E41" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46000</v>
+        <v>48200</v>
       </c>
       <c r="E42" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30300</v>
+        <v>31700</v>
       </c>
       <c r="E43" s="3">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,10 +1562,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8400</v>
+        <v>8800</v>
       </c>
       <c r="E44" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="E45" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>102600</v>
+        <v>107500</v>
       </c>
       <c r="E46" s="3">
-        <v>42600</v>
+        <v>44600</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="E48" s="3">
-        <v>10100</v>
+        <v>10600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,7 +1697,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>123100</v>
+        <v>128900</v>
       </c>
       <c r="E54" s="3">
-        <v>54100</v>
+        <v>56700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6400</v>
+        <v>6800</v>
       </c>
       <c r="E58" s="3">
-        <v>26000</v>
+        <v>27200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15600</v>
+        <v>16400</v>
       </c>
       <c r="E59" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23900</v>
+        <v>25000</v>
       </c>
       <c r="E60" s="3">
-        <v>41300</v>
+        <v>43300</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E61" s="3">
-        <v>13600</v>
+        <v>14200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="E66" s="3">
-        <v>55200</v>
+        <v>57800</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>221800</v>
+        <v>232300</v>
       </c>
       <c r="E70" s="3">
-        <v>86600</v>
+        <v>90700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-137500</v>
+        <v>-144000</v>
       </c>
       <c r="E72" s="3">
-        <v>-88900</v>
+        <v>-93100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-129500</v>
+        <v>-135600</v>
       </c>
       <c r="E76" s="3">
-        <v>-87700</v>
+        <v>-91800</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,13 +2470,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-48500</v>
+        <v>-50800</v>
       </c>
       <c r="E81" s="3">
-        <v>-33700</v>
+        <v>-35300</v>
       </c>
       <c r="F81" s="3">
-        <v>-26800</v>
+        <v>-28100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2510,13 +2510,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E83" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F83" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2672,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-33100</v>
+        <v>-34700</v>
       </c>
       <c r="E89" s="3">
-        <v>-21600</v>
+        <v>-22600</v>
       </c>
       <c r="F89" s="3">
-        <v>-19400</v>
+        <v>-20300</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2712,13 +2712,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6600</v>
+        <v>-6900</v>
       </c>
       <c r="E91" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2793,13 +2793,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50300</v>
+        <v>-52700</v>
       </c>
       <c r="E94" s="3">
-        <v>15400</v>
+        <v>16100</v>
       </c>
       <c r="F94" s="3">
-        <v>-27800</v>
+        <v>-29100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83000</v>
+        <v>87000</v>
       </c>
       <c r="E100" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="F100" s="3">
-        <v>51400</v>
+        <v>53900</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2998,10 +2998,10 @@
         <v>400</v>
       </c>
       <c r="E102" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="F102" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>BNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,26 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>58100</v>
+        <v>65700</v>
       </c>
       <c r="E8" s="3">
-        <v>31800</v>
+        <v>58300</v>
       </c>
       <c r="F8" s="3">
-        <v>16900</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>31900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>17000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,24 +735,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16500</v>
+        <v>17700</v>
       </c>
       <c r="E9" s="3">
-        <v>11200</v>
+        <v>16600</v>
       </c>
       <c r="F9" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G9" s="3">
         <v>6000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -759,23 +765,26 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>41600</v>
+        <v>48000</v>
       </c>
       <c r="E10" s="3">
-        <v>20500</v>
+        <v>41800</v>
       </c>
       <c r="F10" s="3">
-        <v>10900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>20600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,23 +812,24 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>23900</v>
+        <v>40300</v>
       </c>
       <c r="E12" s="3">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="F12" s="3">
+        <v>16100</v>
+      </c>
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,9 +899,12 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +943,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>83800</v>
+        <v>128700</v>
       </c>
       <c r="E17" s="3">
-        <v>56300</v>
+        <v>84100</v>
       </c>
       <c r="F17" s="3">
-        <v>35300</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>56600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>35500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +970,26 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-25700</v>
+        <v>-63000</v>
       </c>
       <c r="E18" s="3">
-        <v>-24600</v>
+        <v>-25800</v>
       </c>
       <c r="F18" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-24700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-18500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1017,24 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,23 +1044,26 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21000</v>
       </c>
-      <c r="E21" s="3">
-        <v>-23200</v>
-      </c>
       <c r="F21" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-23300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-16800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1038,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1065,23 +1104,26 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25700</v>
+        <v>-62200</v>
       </c>
       <c r="E23" s="3">
-        <v>-27000</v>
+        <v>-25800</v>
       </c>
       <c r="F23" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-27100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-20100</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,9 +1134,12 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1194,26 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25700</v>
+        <v>-62200</v>
       </c>
       <c r="E26" s="3">
-        <v>-27000</v>
+        <v>-25800</v>
       </c>
       <c r="F26" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-27100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-20100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1224,26 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50800</v>
+        <v>-72100</v>
       </c>
       <c r="E27" s="3">
-        <v>-35300</v>
+        <v>-51100</v>
       </c>
       <c r="F27" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-28200</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1374,27 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,23 +1404,26 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50800</v>
+        <v>-72100</v>
       </c>
       <c r="E33" s="3">
-        <v>-35300</v>
+        <v>-51100</v>
       </c>
       <c r="F33" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-28200</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1464,26 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50800</v>
+        <v>-72100</v>
       </c>
       <c r="E35" s="3">
-        <v>-35300</v>
+        <v>-51100</v>
       </c>
       <c r="F35" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-28200</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,20 +1560,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>289600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F41" s="3">
         <v>14300</v>
       </c>
-      <c r="E41" s="3">
-        <v>14200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>48200</v>
+        <v>55300</v>
       </c>
       <c r="E42" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>48400</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>31700</v>
+        <v>17000</v>
       </c>
       <c r="E43" s="3">
-        <v>12500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>31900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>12600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,21 +1647,24 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8800</v>
+        <v>10400</v>
       </c>
       <c r="E44" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F44" s="3">
         <v>7500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>13300</v>
       </c>
       <c r="E45" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>4500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>107500</v>
+        <v>385600</v>
       </c>
       <c r="E46" s="3">
-        <v>44600</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>108000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,21 +1737,24 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>200</v>
+      </c>
+      <c r="E47" s="3">
         <v>6100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,21 +1767,24 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,21 +1887,24 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>128900</v>
+        <v>406900</v>
       </c>
       <c r="E54" s="3">
-        <v>56700</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>129500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>56900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2008,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,20 +2035,23 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E58" s="3">
         <v>6800</v>
       </c>
-      <c r="E58" s="3">
-        <v>27200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>27300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16400</v>
+        <v>24300</v>
       </c>
       <c r="E59" s="3">
-        <v>13600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>16500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>13700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25000</v>
+        <v>36900</v>
       </c>
       <c r="E60" s="3">
-        <v>43300</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>25100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>43500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,20 +2125,23 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3500</v>
       </c>
-      <c r="E61" s="3">
-        <v>14200</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2013,21 +2155,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32300</v>
+        <v>37000</v>
       </c>
       <c r="E66" s="3">
-        <v>57800</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>32400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>58100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,20 +2379,23 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>232300</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>90700</v>
+        <v>233300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>91100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-144000</v>
+        <v>-216700</v>
       </c>
       <c r="E72" s="3">
-        <v>-93100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-144600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-93500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-135600</v>
+        <v>369900</v>
       </c>
       <c r="E76" s="3">
-        <v>-91800</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-136200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-92200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2654,26 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50800</v>
+        <v>-72100</v>
       </c>
       <c r="E81" s="3">
-        <v>-35300</v>
+        <v>-51100</v>
       </c>
       <c r="F81" s="3">
-        <v>-28100</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-35500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-28200</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2701,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>4800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="F83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>3300</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +2878,26 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-34700</v>
+        <v>-35100</v>
       </c>
       <c r="E89" s="3">
-        <v>-22600</v>
+        <v>-34800</v>
       </c>
       <c r="F89" s="3">
-        <v>-20300</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-22700</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-20400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
-        <v>-3700</v>
-      </c>
       <c r="F91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3012,26 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52700</v>
+        <v>-16700</v>
       </c>
       <c r="E94" s="3">
-        <v>16100</v>
+        <v>-53000</v>
       </c>
       <c r="F94" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>16200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-29200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3176,26 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>87000</v>
+        <v>330900</v>
       </c>
       <c r="E100" s="3">
+        <v>87300</v>
+      </c>
+      <c r="F100" s="3">
         <v>12700</v>
       </c>
-      <c r="F100" s="3">
-        <v>53900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>54100</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,24 +3236,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>279100</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>BNR</t>
   </si>
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>65700</v>
+        <v>67100</v>
       </c>
       <c r="E8" s="3">
-        <v>58300</v>
+        <v>59500</v>
       </c>
       <c r="F8" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="G8" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="E9" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="F9" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="G9" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="E10" s="3">
-        <v>41800</v>
+        <v>42600</v>
       </c>
       <c r="F10" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="G10" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40300</v>
+        <v>41200</v>
       </c>
       <c r="E12" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="F12" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="G12" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>128700</v>
+        <v>131400</v>
       </c>
       <c r="E17" s="3">
-        <v>84100</v>
+        <v>85900</v>
       </c>
       <c r="F17" s="3">
-        <v>56600</v>
+        <v>57800</v>
       </c>
       <c r="G17" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-63000</v>
+        <v>-64300</v>
       </c>
       <c r="E18" s="3">
-        <v>-25800</v>
+        <v>-26400</v>
       </c>
       <c r="F18" s="3">
-        <v>-24700</v>
+        <v>-25200</v>
       </c>
       <c r="G18" s="3">
-        <v>-18500</v>
+        <v>-18900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1053,17 +1053,17 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-58300</v>
       </c>
       <c r="E21" s="3">
-        <v>-21000</v>
+        <v>-21500</v>
       </c>
       <c r="F21" s="3">
-        <v>-23300</v>
+        <v>-23800</v>
       </c>
       <c r="G21" s="3">
-        <v>-16800</v>
+        <v>-17200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62200</v>
+        <v>-63500</v>
       </c>
       <c r="E23" s="3">
-        <v>-25800</v>
+        <v>-26400</v>
       </c>
       <c r="F23" s="3">
-        <v>-27100</v>
+        <v>-27700</v>
       </c>
       <c r="G23" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-62200</v>
+        <v>-63500</v>
       </c>
       <c r="E26" s="3">
-        <v>-25800</v>
+        <v>-26400</v>
       </c>
       <c r="F26" s="3">
-        <v>-27100</v>
+        <v>-27700</v>
       </c>
       <c r="G26" s="3">
-        <v>-20100</v>
+        <v>-20500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-72100</v>
+        <v>-73600</v>
       </c>
       <c r="E27" s="3">
-        <v>-51100</v>
+        <v>-52100</v>
       </c>
       <c r="F27" s="3">
-        <v>-35500</v>
+        <v>-36200</v>
       </c>
       <c r="G27" s="3">
-        <v>-28200</v>
+        <v>-28800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-72100</v>
+        <v>-73600</v>
       </c>
       <c r="E33" s="3">
-        <v>-51100</v>
+        <v>-52100</v>
       </c>
       <c r="F33" s="3">
-        <v>-35500</v>
+        <v>-36200</v>
       </c>
       <c r="G33" s="3">
-        <v>-28200</v>
+        <v>-28800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-72100</v>
+        <v>-73600</v>
       </c>
       <c r="E35" s="3">
-        <v>-51100</v>
+        <v>-52100</v>
       </c>
       <c r="F35" s="3">
-        <v>-35500</v>
+        <v>-36200</v>
       </c>
       <c r="G35" s="3">
-        <v>-28200</v>
+        <v>-28800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>289600</v>
+        <v>295700</v>
       </c>
       <c r="E41" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="F41" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>55300</v>
+        <v>57300</v>
       </c>
       <c r="E42" s="3">
-        <v>48400</v>
+        <v>49400</v>
       </c>
       <c r="F42" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="E43" s="3">
-        <v>31900</v>
+        <v>32500</v>
       </c>
       <c r="F43" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E44" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F44" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13300</v>
+        <v>7100</v>
       </c>
       <c r="E45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F45" s="3">
         <v>3900</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>385600</v>
+        <v>393700</v>
       </c>
       <c r="E46" s="3">
-        <v>108000</v>
+        <v>110300</v>
       </c>
       <c r="F46" s="3">
-        <v>44800</v>
+        <v>45700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1750,7 +1750,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="E48" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="F48" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>406900</v>
+        <v>415500</v>
       </c>
       <c r="E54" s="3">
-        <v>129500</v>
+        <v>132200</v>
       </c>
       <c r="F54" s="3">
-        <v>56900</v>
+        <v>58100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E57" s="3">
         <v>1900</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F58" s="3">
-        <v>27300</v>
+        <v>27900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="E59" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="F59" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36900</v>
+        <v>37700</v>
       </c>
       <c r="E60" s="3">
-        <v>25100</v>
+        <v>25700</v>
       </c>
       <c r="F60" s="3">
-        <v>43500</v>
+        <v>44400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F61" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37000</v>
+        <v>37800</v>
       </c>
       <c r="E66" s="3">
-        <v>32400</v>
+        <v>33100</v>
       </c>
       <c r="F66" s="3">
-        <v>58100</v>
+        <v>59300</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>233300</v>
+        <v>238200</v>
       </c>
       <c r="F70" s="3">
-        <v>91100</v>
+        <v>93000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-216700</v>
+        <v>-221200</v>
       </c>
       <c r="E72" s="3">
-        <v>-144600</v>
+        <v>-147700</v>
       </c>
       <c r="F72" s="3">
-        <v>-93500</v>
+        <v>-95500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>369900</v>
+        <v>377700</v>
       </c>
       <c r="E76" s="3">
-        <v>-136200</v>
+        <v>-139000</v>
       </c>
       <c r="F76" s="3">
-        <v>-92200</v>
+        <v>-94100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-72100</v>
+        <v>-73600</v>
       </c>
       <c r="E81" s="3">
-        <v>-51100</v>
+        <v>-52100</v>
       </c>
       <c r="F81" s="3">
-        <v>-35500</v>
+        <v>-36200</v>
       </c>
       <c r="G81" s="3">
-        <v>-28200</v>
+        <v>-28800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2707,14 +2707,14 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>5200</v>
       </c>
       <c r="E83" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G83" s="3">
         <v>3300</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-35100</v>
+        <v>-11500</v>
       </c>
       <c r="E89" s="3">
-        <v>-34800</v>
+        <v>-35600</v>
       </c>
       <c r="F89" s="3">
-        <v>-22700</v>
+        <v>-23200</v>
       </c>
       <c r="G89" s="3">
-        <v>-20400</v>
+        <v>-20900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2931,17 +2931,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-11800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6900</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
         <v>-3800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16700</v>
+        <v>-17100</v>
       </c>
       <c r="E94" s="3">
-        <v>-53000</v>
+        <v>-54100</v>
       </c>
       <c r="F94" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="G94" s="3">
-        <v>-29200</v>
+        <v>-29800</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>330900</v>
+        <v>337900</v>
       </c>
       <c r="E100" s="3">
-        <v>87300</v>
+        <v>89200</v>
       </c>
       <c r="F100" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="G100" s="3">
-        <v>54100</v>
+        <v>55300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3215,8 +3215,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>-24300</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3246,16 +3246,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>279100</v>
+        <v>285000</v>
       </c>
       <c r="E102" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G102" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>67100</v>
+        <v>66200</v>
       </c>
       <c r="E8" s="3">
-        <v>59500</v>
+        <v>58800</v>
       </c>
       <c r="F8" s="3">
-        <v>32600</v>
+        <v>32200</v>
       </c>
       <c r="G8" s="3">
-        <v>17300</v>
+        <v>17100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="E9" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="F9" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="G9" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>49000</v>
+        <v>48300</v>
       </c>
       <c r="E10" s="3">
-        <v>42600</v>
+        <v>42100</v>
       </c>
       <c r="F10" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="G10" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41200</v>
+        <v>40600</v>
       </c>
       <c r="E12" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="F12" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="G12" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>131400</v>
+        <v>129700</v>
       </c>
       <c r="E17" s="3">
-        <v>85900</v>
+        <v>84800</v>
       </c>
       <c r="F17" s="3">
-        <v>57800</v>
+        <v>57000</v>
       </c>
       <c r="G17" s="3">
-        <v>36200</v>
+        <v>35700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64300</v>
+        <v>-63500</v>
       </c>
       <c r="E18" s="3">
-        <v>-26400</v>
+        <v>-26000</v>
       </c>
       <c r="F18" s="3">
-        <v>-25200</v>
+        <v>-24900</v>
       </c>
       <c r="G18" s="3">
-        <v>-18900</v>
+        <v>-18600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-58300</v>
+        <v>-57600</v>
       </c>
       <c r="E21" s="3">
-        <v>-21500</v>
+        <v>-21200</v>
       </c>
       <c r="F21" s="3">
-        <v>-23800</v>
+        <v>-23500</v>
       </c>
       <c r="G21" s="3">
-        <v>-17200</v>
+        <v>-16900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-63500</v>
+        <v>-62700</v>
       </c>
       <c r="E23" s="3">
-        <v>-26400</v>
+        <v>-26000</v>
       </c>
       <c r="F23" s="3">
-        <v>-27700</v>
+        <v>-27300</v>
       </c>
       <c r="G23" s="3">
-        <v>-20500</v>
+        <v>-20200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-63500</v>
+        <v>-62700</v>
       </c>
       <c r="E26" s="3">
-        <v>-26400</v>
+        <v>-26000</v>
       </c>
       <c r="F26" s="3">
-        <v>-27700</v>
+        <v>-27300</v>
       </c>
       <c r="G26" s="3">
-        <v>-20500</v>
+        <v>-20200</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-73600</v>
+        <v>-72700</v>
       </c>
       <c r="E27" s="3">
-        <v>-52100</v>
+        <v>-51500</v>
       </c>
       <c r="F27" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="G27" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-73600</v>
+        <v>-72700</v>
       </c>
       <c r="E33" s="3">
-        <v>-52100</v>
+        <v>-51500</v>
       </c>
       <c r="F33" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="G33" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-73600</v>
+        <v>-72700</v>
       </c>
       <c r="E35" s="3">
-        <v>-52100</v>
+        <v>-51500</v>
       </c>
       <c r="F35" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="G35" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>295700</v>
+        <v>291800</v>
       </c>
       <c r="E41" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="F41" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>57300</v>
+        <v>56600</v>
       </c>
       <c r="E42" s="3">
-        <v>49400</v>
+        <v>48800</v>
       </c>
       <c r="F42" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="E43" s="3">
-        <v>32500</v>
+        <v>32100</v>
       </c>
       <c r="F43" s="3">
-        <v>12900</v>
+        <v>12700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="E44" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="F44" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1690,7 +1690,7 @@
         <v>7100</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F45" s="3">
         <v>3900</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>393700</v>
+        <v>388600</v>
       </c>
       <c r="E46" s="3">
-        <v>110300</v>
+        <v>108800</v>
       </c>
       <c r="F46" s="3">
-        <v>45700</v>
+        <v>45100</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1750,7 +1750,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="F48" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>415500</v>
+        <v>410100</v>
       </c>
       <c r="E54" s="3">
-        <v>132200</v>
+        <v>130500</v>
       </c>
       <c r="F54" s="3">
-        <v>58100</v>
+        <v>57400</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
-        <v>27900</v>
+        <v>27600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24800</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37700</v>
+        <v>37200</v>
       </c>
       <c r="E60" s="3">
-        <v>25700</v>
+        <v>25300</v>
       </c>
       <c r="F60" s="3">
-        <v>44400</v>
+        <v>43800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3600</v>
       </c>
       <c r="F61" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37800</v>
+        <v>37300</v>
       </c>
       <c r="E66" s="3">
-        <v>33100</v>
+        <v>32600</v>
       </c>
       <c r="F66" s="3">
-        <v>59300</v>
+        <v>58500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>238200</v>
+        <v>235100</v>
       </c>
       <c r="F70" s="3">
-        <v>93000</v>
+        <v>91800</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-221200</v>
+        <v>-218400</v>
       </c>
       <c r="E72" s="3">
-        <v>-147700</v>
+        <v>-145700</v>
       </c>
       <c r="F72" s="3">
-        <v>-95500</v>
+        <v>-94200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>377700</v>
+        <v>372800</v>
       </c>
       <c r="E76" s="3">
-        <v>-139000</v>
+        <v>-137200</v>
       </c>
       <c r="F76" s="3">
-        <v>-94100</v>
+        <v>-92900</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-73600</v>
+        <v>-72700</v>
       </c>
       <c r="E81" s="3">
-        <v>-52100</v>
+        <v>-51500</v>
       </c>
       <c r="F81" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="G81" s="3">
-        <v>-28800</v>
+        <v>-28400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E83" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G83" s="3">
         <v>3300</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11500</v>
+        <v>-11300</v>
       </c>
       <c r="E89" s="3">
-        <v>-35600</v>
+        <v>-35100</v>
       </c>
       <c r="F89" s="3">
-        <v>-23200</v>
+        <v>-22900</v>
       </c>
       <c r="G89" s="3">
-        <v>-20900</v>
+        <v>-20600</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11800</v>
+        <v>-11600</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="F91" s="3">
         <v>-3800</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17100</v>
+        <v>-16800</v>
       </c>
       <c r="E94" s="3">
-        <v>-54100</v>
+        <v>-53400</v>
       </c>
       <c r="F94" s="3">
-        <v>16600</v>
+        <v>16300</v>
       </c>
       <c r="G94" s="3">
-        <v>-29800</v>
+        <v>-29400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>337900</v>
+        <v>333500</v>
       </c>
       <c r="E100" s="3">
-        <v>89200</v>
+        <v>88000</v>
       </c>
       <c r="F100" s="3">
-        <v>13000</v>
+        <v>12800</v>
       </c>
       <c r="G100" s="3">
-        <v>55300</v>
+        <v>54500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24300</v>
+        <v>-24000</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>285000</v>
+        <v>281300</v>
       </c>
       <c r="E102" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F102" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="G102" s="3">
         <v>2800</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>66200</v>
+        <v>67300</v>
       </c>
       <c r="E8" s="3">
-        <v>58800</v>
+        <v>59800</v>
       </c>
       <c r="F8" s="3">
-        <v>32200</v>
+        <v>32700</v>
       </c>
       <c r="G8" s="3">
-        <v>17100</v>
+        <v>17400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,16 +745,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17900</v>
+        <v>18200</v>
       </c>
       <c r="E9" s="3">
-        <v>16700</v>
+        <v>17000</v>
       </c>
       <c r="F9" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="G9" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>48300</v>
+        <v>49100</v>
       </c>
       <c r="E10" s="3">
-        <v>42100</v>
+        <v>42800</v>
       </c>
       <c r="F10" s="3">
-        <v>20800</v>
+        <v>21100</v>
       </c>
       <c r="G10" s="3">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>40600</v>
+        <v>41300</v>
       </c>
       <c r="E12" s="3">
-        <v>24200</v>
+        <v>24600</v>
       </c>
       <c r="F12" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="G12" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>129700</v>
+        <v>131900</v>
       </c>
       <c r="E17" s="3">
-        <v>84800</v>
+        <v>86200</v>
       </c>
       <c r="F17" s="3">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="G17" s="3">
-        <v>35700</v>
+        <v>36300</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-63500</v>
+        <v>-64600</v>
       </c>
       <c r="E18" s="3">
-        <v>-26000</v>
+        <v>-26500</v>
       </c>
       <c r="F18" s="3">
-        <v>-24900</v>
+        <v>-25300</v>
       </c>
       <c r="G18" s="3">
-        <v>-18600</v>
+        <v>-18900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-57600</v>
+        <v>-58500</v>
       </c>
       <c r="E21" s="3">
-        <v>-21200</v>
+        <v>-21600</v>
       </c>
       <c r="F21" s="3">
-        <v>-23500</v>
+        <v>-23900</v>
       </c>
       <c r="G21" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-62700</v>
+        <v>-63800</v>
       </c>
       <c r="E23" s="3">
-        <v>-26000</v>
+        <v>-26500</v>
       </c>
       <c r="F23" s="3">
-        <v>-27300</v>
+        <v>-27800</v>
       </c>
       <c r="G23" s="3">
-        <v>-20200</v>
+        <v>-20600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-62700</v>
+        <v>-63800</v>
       </c>
       <c r="E26" s="3">
-        <v>-26000</v>
+        <v>-26500</v>
       </c>
       <c r="F26" s="3">
-        <v>-27300</v>
+        <v>-27800</v>
       </c>
       <c r="G26" s="3">
-        <v>-20200</v>
+        <v>-20600</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-72700</v>
+        <v>-73900</v>
       </c>
       <c r="E27" s="3">
-        <v>-51500</v>
+        <v>-52300</v>
       </c>
       <c r="F27" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="G27" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-72700</v>
+        <v>-73900</v>
       </c>
       <c r="E33" s="3">
-        <v>-51500</v>
+        <v>-52300</v>
       </c>
       <c r="F33" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="G33" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-72700</v>
+        <v>-73900</v>
       </c>
       <c r="E35" s="3">
-        <v>-51500</v>
+        <v>-52300</v>
       </c>
       <c r="F35" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="G35" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>291800</v>
+        <v>296700</v>
       </c>
       <c r="E41" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F41" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56600</v>
+        <v>57500</v>
       </c>
       <c r="E42" s="3">
-        <v>48800</v>
+        <v>49600</v>
       </c>
       <c r="F42" s="3">
-        <v>6600</v>
+        <v>6700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>23000</v>
       </c>
       <c r="E43" s="3">
-        <v>32100</v>
+        <v>32700</v>
       </c>
       <c r="F43" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="E44" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="F44" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F45" s="3">
         <v>3900</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>388600</v>
+        <v>395100</v>
       </c>
       <c r="E46" s="3">
-        <v>108800</v>
+        <v>110700</v>
       </c>
       <c r="F46" s="3">
-        <v>45100</v>
+        <v>45900</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1750,7 +1750,7 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="E48" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="F48" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>410100</v>
+        <v>416900</v>
       </c>
       <c r="E54" s="3">
-        <v>130500</v>
+        <v>132700</v>
       </c>
       <c r="F54" s="3">
-        <v>57400</v>
+        <v>58300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
         <v>1900</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F58" s="3">
-        <v>27600</v>
+        <v>28000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24500</v>
+        <v>24900</v>
       </c>
       <c r="E59" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="F59" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37200</v>
+        <v>37800</v>
       </c>
       <c r="E60" s="3">
-        <v>25300</v>
+        <v>25700</v>
       </c>
       <c r="F60" s="3">
-        <v>43800</v>
+        <v>44600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3600</v>
       </c>
       <c r="F61" s="3">
-        <v>14400</v>
+        <v>14600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="E66" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="F66" s="3">
-        <v>58500</v>
+        <v>59500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>235100</v>
+        <v>239100</v>
       </c>
       <c r="F70" s="3">
-        <v>91800</v>
+        <v>93300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-218400</v>
+        <v>-222000</v>
       </c>
       <c r="E72" s="3">
-        <v>-145700</v>
+        <v>-148200</v>
       </c>
       <c r="F72" s="3">
-        <v>-94200</v>
+        <v>-95800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>372800</v>
+        <v>379000</v>
       </c>
       <c r="E76" s="3">
-        <v>-137200</v>
+        <v>-139600</v>
       </c>
       <c r="F76" s="3">
-        <v>-92900</v>
+        <v>-94400</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-72700</v>
+        <v>-73900</v>
       </c>
       <c r="E81" s="3">
-        <v>-51500</v>
+        <v>-52300</v>
       </c>
       <c r="F81" s="3">
-        <v>-35800</v>
+        <v>-36400</v>
       </c>
       <c r="G81" s="3">
-        <v>-28400</v>
+        <v>-28900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E83" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G83" s="3">
         <v>3300</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11300</v>
+        <v>-11500</v>
       </c>
       <c r="E89" s="3">
-        <v>-35100</v>
+        <v>-35700</v>
       </c>
       <c r="F89" s="3">
-        <v>-22900</v>
+        <v>-23300</v>
       </c>
       <c r="G89" s="3">
-        <v>-20600</v>
+        <v>-20900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,10 +2932,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-11800</v>
       </c>
       <c r="E91" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
         <v>-3800</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16800</v>
+        <v>-17100</v>
       </c>
       <c r="E94" s="3">
-        <v>-53400</v>
+        <v>-54300</v>
       </c>
       <c r="F94" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="G94" s="3">
-        <v>-29400</v>
+        <v>-29900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>333500</v>
+        <v>339100</v>
       </c>
       <c r="E100" s="3">
-        <v>88000</v>
+        <v>89500</v>
       </c>
       <c r="F100" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="G100" s="3">
-        <v>54500</v>
+        <v>55400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24000</v>
+        <v>-24400</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>281300</v>
+        <v>286000</v>
       </c>
       <c r="E102" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F102" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G102" s="3">
         <v>2800</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -715,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>67300</v>
+        <v>67800</v>
       </c>
       <c r="E8" s="3">
-        <v>59800</v>
+        <v>60200</v>
       </c>
       <c r="F8" s="3">
-        <v>32700</v>
+        <v>33000</v>
       </c>
       <c r="G8" s="3">
-        <v>17400</v>
+        <v>17500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="E9" s="3">
-        <v>17000</v>
+        <v>17100</v>
       </c>
       <c r="F9" s="3">
         <v>11600</v>
@@ -775,16 +775,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="E10" s="3">
-        <v>42800</v>
+        <v>43100</v>
       </c>
       <c r="F10" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="G10" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41300</v>
+        <v>41600</v>
       </c>
       <c r="E12" s="3">
-        <v>24600</v>
+        <v>24800</v>
       </c>
       <c r="F12" s="3">
-        <v>16500</v>
+        <v>16600</v>
       </c>
       <c r="G12" s="3">
         <v>7700</v>
@@ -950,16 +950,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>131900</v>
+        <v>132900</v>
       </c>
       <c r="E17" s="3">
-        <v>86200</v>
+        <v>86900</v>
       </c>
       <c r="F17" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="G17" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -980,16 +980,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64600</v>
+        <v>-65100</v>
       </c>
       <c r="E18" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="F18" s="3">
-        <v>-25300</v>
+        <v>-25500</v>
       </c>
       <c r="G18" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1054,16 +1054,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-58500</v>
+        <v>-59000</v>
       </c>
       <c r="E21" s="3">
-        <v>-21600</v>
+        <v>-21700</v>
       </c>
       <c r="F21" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="G21" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1114,16 +1114,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-63800</v>
+        <v>-64200</v>
       </c>
       <c r="E23" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="F23" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="G23" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1204,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-63800</v>
+        <v>-64200</v>
       </c>
       <c r="E26" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="F26" s="3">
-        <v>-27800</v>
+        <v>-28000</v>
       </c>
       <c r="G26" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1234,16 +1234,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-73900</v>
+        <v>-74500</v>
       </c>
       <c r="E27" s="3">
-        <v>-52300</v>
+        <v>-52700</v>
       </c>
       <c r="F27" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="G27" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1414,16 +1414,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-73900</v>
+        <v>-74500</v>
       </c>
       <c r="E33" s="3">
-        <v>-52300</v>
+        <v>-52700</v>
       </c>
       <c r="F33" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="G33" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1474,16 +1474,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-73900</v>
+        <v>-74500</v>
       </c>
       <c r="E35" s="3">
-        <v>-52300</v>
+        <v>-52700</v>
       </c>
       <c r="F35" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="G35" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>296700</v>
+        <v>299000</v>
       </c>
       <c r="E41" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F41" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>57500</v>
+        <v>58000</v>
       </c>
       <c r="E42" s="3">
-        <v>49600</v>
+        <v>50000</v>
       </c>
       <c r="F42" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="E43" s="3">
-        <v>32700</v>
+        <v>32900</v>
       </c>
       <c r="F43" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,10 +1657,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="E44" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F44" s="3">
         <v>7700</v>
@@ -1693,7 +1693,7 @@
         <v>4600</v>
       </c>
       <c r="F45" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>395100</v>
+        <v>398100</v>
       </c>
       <c r="E46" s="3">
-        <v>110700</v>
+        <v>111500</v>
       </c>
       <c r="F46" s="3">
-        <v>45900</v>
+        <v>46200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="E48" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="F48" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>416900</v>
+        <v>420100</v>
       </c>
       <c r="E54" s="3">
-        <v>132700</v>
+        <v>133700</v>
       </c>
       <c r="F54" s="3">
-        <v>58300</v>
+        <v>58800</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2021,7 +2021,7 @@
         <v>1900</v>
       </c>
       <c r="F57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,13 +2045,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E58" s="3">
         <v>7000</v>
       </c>
       <c r="F58" s="3">
-        <v>28000</v>
+        <v>28200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24900</v>
+        <v>25100</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="F59" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37800</v>
+        <v>38100</v>
       </c>
       <c r="E60" s="3">
-        <v>25700</v>
+        <v>25900</v>
       </c>
       <c r="F60" s="3">
-        <v>44600</v>
+        <v>44900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2141,7 +2141,7 @@
         <v>3600</v>
       </c>
       <c r="F61" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="E66" s="3">
-        <v>33200</v>
+        <v>33400</v>
       </c>
       <c r="F66" s="3">
-        <v>59500</v>
+        <v>60000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2392,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>239100</v>
+        <v>240900</v>
       </c>
       <c r="F70" s="3">
-        <v>93300</v>
+        <v>94000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-222000</v>
+        <v>-223700</v>
       </c>
       <c r="E72" s="3">
-        <v>-148200</v>
+        <v>-149300</v>
       </c>
       <c r="F72" s="3">
-        <v>-95800</v>
+        <v>-96500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>379000</v>
+        <v>381900</v>
       </c>
       <c r="E76" s="3">
-        <v>-139600</v>
+        <v>-140600</v>
       </c>
       <c r="F76" s="3">
-        <v>-94400</v>
+        <v>-95200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-73900</v>
+        <v>-74500</v>
       </c>
       <c r="E81" s="3">
-        <v>-52300</v>
+        <v>-52700</v>
       </c>
       <c r="F81" s="3">
-        <v>-36400</v>
+        <v>-36700</v>
       </c>
       <c r="G81" s="3">
-        <v>-28900</v>
+        <v>-29100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2708,7 +2708,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E83" s="3">
         <v>4900</v>
@@ -2717,7 +2717,7 @@
         <v>3900</v>
       </c>
       <c r="G83" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2888,16 +2888,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="E89" s="3">
-        <v>-35700</v>
+        <v>-36000</v>
       </c>
       <c r="F89" s="3">
-        <v>-23300</v>
+        <v>-23500</v>
       </c>
       <c r="G89" s="3">
-        <v>-20900</v>
+        <v>-21100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11800</v>
+        <v>-11900</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
         <v>-3500</v>
@@ -3022,16 +3022,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17100</v>
+        <v>-17200</v>
       </c>
       <c r="E94" s="3">
-        <v>-54300</v>
+        <v>-54700</v>
       </c>
       <c r="F94" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="G94" s="3">
-        <v>-29900</v>
+        <v>-30100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3186,16 +3186,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>339100</v>
+        <v>341700</v>
       </c>
       <c r="E100" s="3">
-        <v>89500</v>
+        <v>90200</v>
       </c>
       <c r="F100" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="G100" s="3">
-        <v>55400</v>
+        <v>55900</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24400</v>
+        <v>-24600</v>
       </c>
       <c r="E101" s="3">
         <v>900</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>286000</v>
+        <v>288200</v>
       </c>
       <c r="E102" s="3">
         <v>500</v>
       </c>
       <c r="F102" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G102" s="3">
         <v>2800</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>BNR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +708,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>67800</v>
+        <v>74800</v>
       </c>
       <c r="E8" s="3">
-        <v>60200</v>
+        <v>63400</v>
       </c>
       <c r="F8" s="3">
-        <v>33000</v>
+        <v>56200</v>
       </c>
       <c r="G8" s="3">
-        <v>17500</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>30800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>16400</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -738,26 +741,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18300</v>
+        <v>21200</v>
       </c>
       <c r="E9" s="3">
         <v>17100</v>
       </c>
       <c r="F9" s="3">
-        <v>11600</v>
+        <v>16000</v>
       </c>
       <c r="G9" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>10900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5800</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,26 +774,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>49500</v>
+        <v>53700</v>
       </c>
       <c r="E10" s="3">
-        <v>43100</v>
+        <v>46300</v>
       </c>
       <c r="F10" s="3">
-        <v>21300</v>
+        <v>40300</v>
       </c>
       <c r="G10" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>19900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,25 +825,26 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>41600</v>
+        <v>54200</v>
       </c>
       <c r="E12" s="3">
-        <v>24800</v>
+        <v>38900</v>
       </c>
       <c r="F12" s="3">
-        <v>16600</v>
+        <v>23100</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>15500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7200</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,9 +921,12 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -932,9 +954,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,25 +969,26 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>132900</v>
+        <v>192300</v>
       </c>
       <c r="E17" s="3">
-        <v>86900</v>
+        <v>124100</v>
       </c>
       <c r="F17" s="3">
-        <v>58400</v>
+        <v>81200</v>
       </c>
       <c r="G17" s="3">
-        <v>36600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>54600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>34200</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -973,26 +999,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-65100</v>
+        <v>-117500</v>
       </c>
       <c r="E18" s="3">
-        <v>-26700</v>
+        <v>-60800</v>
       </c>
       <c r="F18" s="3">
-        <v>-25500</v>
+        <v>-24900</v>
       </c>
       <c r="G18" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-23800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-17800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,25 +1050,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+        <v>-2400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1047,26 +1080,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-59000</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-21700</v>
+        <v>-55100</v>
       </c>
       <c r="F21" s="3">
-        <v>-24100</v>
+        <v>-20300</v>
       </c>
       <c r="G21" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-22500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-16200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1077,56 +1113,62 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-64200</v>
+        <v>-117300</v>
       </c>
       <c r="E23" s="3">
-        <v>-26700</v>
+        <v>-60000</v>
       </c>
       <c r="F23" s="3">
-        <v>-28000</v>
+        <v>-24900</v>
       </c>
       <c r="G23" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-19300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1137,14 +1179,17 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1158,18 +1203,21 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,26 +1245,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-64200</v>
+        <v>-117400</v>
       </c>
       <c r="E26" s="3">
-        <v>-26700</v>
+        <v>-60000</v>
       </c>
       <c r="F26" s="3">
-        <v>-28000</v>
+        <v>-24900</v>
       </c>
       <c r="G26" s="3">
-        <v>-20700</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-26200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-19300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1227,26 +1278,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74500</v>
+        <v>-117400</v>
       </c>
       <c r="E27" s="3">
-        <v>-52700</v>
+        <v>-69500</v>
       </c>
       <c r="F27" s="3">
-        <v>-36700</v>
+        <v>-49200</v>
       </c>
       <c r="G27" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-34200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-27200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,26 +1443,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1407,26 +1476,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74500</v>
+        <v>-117400</v>
       </c>
       <c r="E33" s="3">
-        <v>-52700</v>
+        <v>-69500</v>
       </c>
       <c r="F33" s="3">
-        <v>-36700</v>
+        <v>-49200</v>
       </c>
       <c r="G33" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-34200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-27200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,26 +1542,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74500</v>
+        <v>-117400</v>
       </c>
       <c r="E35" s="3">
-        <v>-52700</v>
+        <v>-69500</v>
       </c>
       <c r="F35" s="3">
-        <v>-36700</v>
+        <v>-49200</v>
       </c>
       <c r="G35" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-34200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-27200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1497,32 +1575,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>299000</v>
+        <v>210900</v>
       </c>
       <c r="E41" s="3">
-        <v>14900</v>
+        <v>279300</v>
       </c>
       <c r="F41" s="3">
-        <v>14700</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>58000</v>
+        <v>9400</v>
       </c>
       <c r="E42" s="3">
-        <v>50000</v>
+        <v>54100</v>
       </c>
       <c r="F42" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>46700</v>
+      </c>
+      <c r="G42" s="3">
+        <v>6300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23200</v>
+        <v>19800</v>
       </c>
       <c r="E43" s="3">
-        <v>32900</v>
+        <v>21700</v>
       </c>
       <c r="F43" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>30700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12200</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10700</v>
+        <v>18200</v>
       </c>
       <c r="E44" s="3">
-        <v>9200</v>
+        <v>10000</v>
       </c>
       <c r="F44" s="3">
-        <v>7700</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7200</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,23 +1775,26 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7200</v>
+        <v>10000</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3700</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>398100</v>
+        <v>268300</v>
       </c>
       <c r="E46" s="3">
-        <v>111500</v>
+        <v>371900</v>
       </c>
       <c r="F46" s="3">
-        <v>46200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>104200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>43200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,24 +1841,27 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>200</v>
       </c>
-      <c r="E47" s="3">
-        <v>6300</v>
-      </c>
       <c r="F47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17600</v>
+        <v>59900</v>
       </c>
       <c r="E48" s="3">
-        <v>14100</v>
+        <v>16400</v>
       </c>
       <c r="F48" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>13200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
-      </c>
-      <c r="E49" s="3">
-        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>3400</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>420100</v>
+        <v>335800</v>
       </c>
       <c r="E54" s="3">
-        <v>133700</v>
+        <v>392400</v>
       </c>
       <c r="F54" s="3">
-        <v>58800</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>124900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>54900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>9300</v>
       </c>
       <c r="E57" s="3">
-        <v>1900</v>
+        <v>5200</v>
       </c>
       <c r="F57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,23 +2168,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7400</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="F58" s="3">
-        <v>28200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>26400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25100</v>
+        <v>45200</v>
       </c>
       <c r="E59" s="3">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="F59" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>13200</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>38100</v>
+        <v>54800</v>
       </c>
       <c r="E60" s="3">
-        <v>25900</v>
+        <v>35600</v>
       </c>
       <c r="F60" s="3">
-        <v>44900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>24200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>42000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,9 +2267,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2138,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>14700</v>
+        <v>3400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>13800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2158,24 +2300,27 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>3900</v>
-      </c>
       <c r="F62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38200</v>
+        <v>63800</v>
       </c>
       <c r="E66" s="3">
-        <v>33400</v>
+        <v>35700</v>
       </c>
       <c r="F66" s="3">
-        <v>60000</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>31200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>56000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2392,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>240900</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>94000</v>
+        <v>225000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>87800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-223700</v>
+        <v>-328400</v>
       </c>
       <c r="E72" s="3">
-        <v>-149300</v>
+        <v>-209000</v>
       </c>
       <c r="F72" s="3">
-        <v>-96500</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-139500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-90200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>381900</v>
+        <v>271900</v>
       </c>
       <c r="E76" s="3">
-        <v>-140600</v>
+        <v>356800</v>
       </c>
       <c r="F76" s="3">
-        <v>-95200</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-131300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-88900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,32 +2810,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,26 +2848,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74500</v>
+        <v>-117400</v>
       </c>
       <c r="E81" s="3">
-        <v>-52700</v>
+        <v>-69500</v>
       </c>
       <c r="F81" s="3">
-        <v>-36700</v>
+        <v>-49200</v>
       </c>
       <c r="G81" s="3">
-        <v>-29100</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-34200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-27200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,25 +2899,26 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>5300</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>4900</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>3600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>3100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,26 +3094,29 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11600</v>
+        <v>-70400</v>
       </c>
       <c r="E89" s="3">
-        <v>-36000</v>
+        <v>-10800</v>
       </c>
       <c r="F89" s="3">
-        <v>-23500</v>
+        <v>-33600</v>
       </c>
       <c r="G89" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-21900</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-19700</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,25 +3145,26 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-11900</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-7200</v>
+        <v>-11100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3900</v>
+        <v>-6700</v>
       </c>
       <c r="G91" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-3600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3300</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,26 +3241,29 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-17200</v>
+        <v>12000</v>
       </c>
       <c r="E94" s="3">
-        <v>-54700</v>
+        <v>-16100</v>
       </c>
       <c r="F94" s="3">
-        <v>16700</v>
+        <v>-51100</v>
       </c>
       <c r="G94" s="3">
-        <v>-30100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>15600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-28200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,26 +3421,29 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>341700</v>
+        <v>-7800</v>
       </c>
       <c r="E100" s="3">
-        <v>90200</v>
+        <v>319100</v>
       </c>
       <c r="F100" s="3">
-        <v>13200</v>
+        <v>84300</v>
       </c>
       <c r="G100" s="3">
-        <v>55900</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>12300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>52200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3209,26 +3454,29 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24600</v>
+        <v>-5500</v>
       </c>
       <c r="E101" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1700</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3239,26 +3487,29 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>288200</v>
+        <v>-71600</v>
       </c>
       <c r="E102" s="3">
-        <v>500</v>
+        <v>269200</v>
       </c>
       <c r="F102" s="3">
-        <v>6400</v>
+        <v>400</v>
       </c>
       <c r="G102" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>2600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>BNR</t>
   </si>
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>74800</v>
+        <v>74200</v>
       </c>
       <c r="E8" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="F8" s="3">
-        <v>56200</v>
+        <v>55700</v>
       </c>
       <c r="G8" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="H8" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>21200</v>
+        <v>21000</v>
       </c>
       <c r="E9" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="F9" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="G9" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="H9" s="3">
         <v>5800</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>53700</v>
+        <v>53200</v>
       </c>
       <c r="E10" s="3">
-        <v>46300</v>
+        <v>45800</v>
       </c>
       <c r="F10" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="G10" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="H10" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>54200</v>
+        <v>53700</v>
       </c>
       <c r="E12" s="3">
-        <v>38900</v>
+        <v>38500</v>
       </c>
       <c r="F12" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="G12" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="H12" s="3">
         <v>7200</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>192300</v>
+        <v>190600</v>
       </c>
       <c r="E17" s="3">
-        <v>124100</v>
+        <v>123000</v>
       </c>
       <c r="F17" s="3">
-        <v>81200</v>
+        <v>80400</v>
       </c>
       <c r="G17" s="3">
-        <v>54600</v>
+        <v>54100</v>
       </c>
       <c r="H17" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117500</v>
+        <v>-116400</v>
       </c>
       <c r="E18" s="3">
-        <v>-60800</v>
+        <v>-60200</v>
       </c>
       <c r="F18" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="G18" s="3">
-        <v>-23800</v>
+        <v>-23600</v>
       </c>
       <c r="H18" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1089,20 +1089,20 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-109000</v>
       </c>
       <c r="E21" s="3">
-        <v>-55100</v>
+        <v>-54600</v>
       </c>
       <c r="F21" s="3">
-        <v>-20300</v>
+        <v>-20100</v>
       </c>
       <c r="G21" s="3">
-        <v>-22500</v>
+        <v>-22300</v>
       </c>
       <c r="H21" s="3">
-        <v>-16200</v>
+        <v>-16100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-117300</v>
+        <v>-116200</v>
       </c>
       <c r="E23" s="3">
-        <v>-60000</v>
+        <v>-59500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="G23" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="H23" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-117400</v>
+        <v>-116300</v>
       </c>
       <c r="E26" s="3">
-        <v>-60000</v>
+        <v>-59500</v>
       </c>
       <c r="F26" s="3">
-        <v>-24900</v>
+        <v>-24700</v>
       </c>
       <c r="G26" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="H26" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-117400</v>
+        <v>-116300</v>
       </c>
       <c r="E27" s="3">
-        <v>-69500</v>
+        <v>-68900</v>
       </c>
       <c r="F27" s="3">
-        <v>-49200</v>
+        <v>-48800</v>
       </c>
       <c r="G27" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="H27" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-117400</v>
+        <v>-116300</v>
       </c>
       <c r="E33" s="3">
-        <v>-69500</v>
+        <v>-68900</v>
       </c>
       <c r="F33" s="3">
-        <v>-49200</v>
+        <v>-48800</v>
       </c>
       <c r="G33" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="H33" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-117400</v>
+        <v>-116300</v>
       </c>
       <c r="E35" s="3">
-        <v>-69500</v>
+        <v>-68900</v>
       </c>
       <c r="F35" s="3">
-        <v>-49200</v>
+        <v>-48800</v>
       </c>
       <c r="G35" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="H35" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>210900</v>
+        <v>209000</v>
       </c>
       <c r="E41" s="3">
-        <v>279300</v>
+        <v>276800</v>
       </c>
       <c r="F41" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G41" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,13 +1686,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="E42" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="F42" s="3">
-        <v>46700</v>
+        <v>46200</v>
       </c>
       <c r="G42" s="3">
         <v>6300</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19800</v>
+        <v>23100</v>
       </c>
       <c r="E43" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="F43" s="3">
-        <v>30700</v>
+        <v>30500</v>
       </c>
       <c r="G43" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,13 +1752,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18200</v>
+        <v>18000</v>
       </c>
       <c r="E44" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="F44" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="G44" s="3">
         <v>7200</v>
@@ -1785,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10000</v>
+        <v>6300</v>
       </c>
       <c r="E45" s="3">
         <v>6700</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>268300</v>
+        <v>265900</v>
       </c>
       <c r="E46" s="3">
-        <v>371900</v>
+        <v>368500</v>
       </c>
       <c r="F46" s="3">
-        <v>104200</v>
+        <v>103200</v>
       </c>
       <c r="G46" s="3">
-        <v>43200</v>
+        <v>42800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="E48" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="F48" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="G48" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E52" s="3">
         <v>3400</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>335800</v>
+        <v>332700</v>
       </c>
       <c r="E54" s="3">
-        <v>392400</v>
+        <v>388900</v>
       </c>
       <c r="F54" s="3">
-        <v>124900</v>
+        <v>123800</v>
       </c>
       <c r="G54" s="3">
-        <v>54900</v>
+        <v>54400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,7 +2145,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E57" s="3">
         <v>5200</v>
@@ -2181,13 +2181,13 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
         <v>6500</v>
       </c>
       <c r="G58" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45200</v>
+        <v>44800</v>
       </c>
       <c r="E59" s="3">
-        <v>23500</v>
+        <v>23200</v>
       </c>
       <c r="F59" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="G59" s="3">
-        <v>13200</v>
+        <v>13100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54800</v>
+        <v>54400</v>
       </c>
       <c r="E60" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="F60" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="G60" s="3">
-        <v>42000</v>
+        <v>41600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2286,7 +2286,7 @@
         <v>3400</v>
       </c>
       <c r="G61" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63800</v>
+        <v>63300</v>
       </c>
       <c r="E66" s="3">
-        <v>35700</v>
+        <v>35300</v>
       </c>
       <c r="F66" s="3">
-        <v>31200</v>
+        <v>31000</v>
       </c>
       <c r="G66" s="3">
-        <v>56000</v>
+        <v>55500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>225000</v>
+        <v>223000</v>
       </c>
       <c r="G70" s="3">
-        <v>87800</v>
+        <v>87100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-328400</v>
+        <v>-325500</v>
       </c>
       <c r="E72" s="3">
-        <v>-209000</v>
+        <v>-207100</v>
       </c>
       <c r="F72" s="3">
-        <v>-139500</v>
+        <v>-138200</v>
       </c>
       <c r="G72" s="3">
-        <v>-90200</v>
+        <v>-89400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>271900</v>
+        <v>269500</v>
       </c>
       <c r="E76" s="3">
-        <v>356800</v>
+        <v>353500</v>
       </c>
       <c r="F76" s="3">
-        <v>-131300</v>
+        <v>-130200</v>
       </c>
       <c r="G76" s="3">
-        <v>-88900</v>
+        <v>-88200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-117400</v>
+        <v>-116300</v>
       </c>
       <c r="E81" s="3">
-        <v>-69500</v>
+        <v>-68900</v>
       </c>
       <c r="F81" s="3">
-        <v>-49200</v>
+        <v>-48800</v>
       </c>
       <c r="G81" s="3">
-        <v>-34200</v>
+        <v>-33900</v>
       </c>
       <c r="H81" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2905,8 +2905,8 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>7000</v>
       </c>
       <c r="E83" s="3">
         <v>4900</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-70400</v>
+        <v>-69800</v>
       </c>
       <c r="E89" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="F89" s="3">
-        <v>-33600</v>
+        <v>-33300</v>
       </c>
       <c r="G89" s="3">
-        <v>-21900</v>
+        <v>-21700</v>
       </c>
       <c r="H89" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3151,14 +3151,14 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-30800</v>
       </c>
       <c r="E91" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="G91" s="3">
         <v>-3600</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>12000</v>
+        <v>11900</v>
       </c>
       <c r="E94" s="3">
-        <v>-16100</v>
+        <v>-16000</v>
       </c>
       <c r="F94" s="3">
-        <v>-51100</v>
+        <v>-50600</v>
       </c>
       <c r="G94" s="3">
-        <v>15600</v>
+        <v>15500</v>
       </c>
       <c r="H94" s="3">
-        <v>-28200</v>
+        <v>-27900</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7800</v>
+        <v>-7700</v>
       </c>
       <c r="E100" s="3">
-        <v>319100</v>
+        <v>316300</v>
       </c>
       <c r="F100" s="3">
-        <v>84300</v>
+        <v>83500</v>
       </c>
       <c r="G100" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="H100" s="3">
-        <v>52200</v>
+        <v>51700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="E101" s="3">
-        <v>-23000</v>
+        <v>-22800</v>
       </c>
       <c r="F101" s="3">
         <v>900</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71600</v>
+        <v>-71000</v>
       </c>
       <c r="E102" s="3">
-        <v>269200</v>
+        <v>266800</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H102" s="3">
         <v>2600</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>74200</v>
+        <v>70700</v>
       </c>
       <c r="E8" s="3">
-        <v>62800</v>
+        <v>59800</v>
       </c>
       <c r="F8" s="3">
-        <v>55700</v>
+        <v>53100</v>
       </c>
       <c r="G8" s="3">
-        <v>30500</v>
+        <v>29100</v>
       </c>
       <c r="H8" s="3">
-        <v>16200</v>
+        <v>15500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="3">
-        <v>16900</v>
+        <v>16100</v>
       </c>
       <c r="F9" s="3">
-        <v>15800</v>
+        <v>15100</v>
       </c>
       <c r="G9" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="H9" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="E10" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="F10" s="3">
-        <v>39900</v>
+        <v>38000</v>
       </c>
       <c r="G10" s="3">
-        <v>19700</v>
+        <v>18800</v>
       </c>
       <c r="H10" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>53700</v>
+        <v>51200</v>
       </c>
       <c r="E12" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="F12" s="3">
-        <v>22900</v>
+        <v>21800</v>
       </c>
       <c r="G12" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="H12" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>190600</v>
+        <v>181600</v>
       </c>
       <c r="E17" s="3">
-        <v>123000</v>
+        <v>117200</v>
       </c>
       <c r="F17" s="3">
-        <v>80400</v>
+        <v>76700</v>
       </c>
       <c r="G17" s="3">
-        <v>54100</v>
+        <v>51500</v>
       </c>
       <c r="H17" s="3">
-        <v>33900</v>
+        <v>32300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-116400</v>
+        <v>-111000</v>
       </c>
       <c r="E18" s="3">
-        <v>-60200</v>
+        <v>-57400</v>
       </c>
       <c r="F18" s="3">
-        <v>-24700</v>
+        <v>-23500</v>
       </c>
       <c r="G18" s="3">
-        <v>-23600</v>
+        <v>-22500</v>
       </c>
       <c r="H18" s="3">
-        <v>-17700</v>
+        <v>-16800</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1060,16 +1060,16 @@
         <v>400</v>
       </c>
       <c r="E20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-109000</v>
+        <v>-104000</v>
       </c>
       <c r="E21" s="3">
-        <v>-54600</v>
+        <v>-52100</v>
       </c>
       <c r="F21" s="3">
-        <v>-20100</v>
+        <v>-19200</v>
       </c>
       <c r="G21" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="H21" s="3">
-        <v>-16100</v>
+        <v>-15300</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-116200</v>
+        <v>-110800</v>
       </c>
       <c r="E23" s="3">
-        <v>-59500</v>
+        <v>-56700</v>
       </c>
       <c r="F23" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="G23" s="3">
         <v>-24700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-19200</v>
+        <v>-18300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-116300</v>
+        <v>-110900</v>
       </c>
       <c r="E26" s="3">
-        <v>-59500</v>
+        <v>-56700</v>
       </c>
       <c r="F26" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-24700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-25900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-19200</v>
+        <v>-18300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-116300</v>
+        <v>-110900</v>
       </c>
       <c r="E27" s="3">
-        <v>-68900</v>
+        <v>-65700</v>
       </c>
       <c r="F27" s="3">
-        <v>-48800</v>
+        <v>-46500</v>
       </c>
       <c r="G27" s="3">
-        <v>-33900</v>
+        <v>-32300</v>
       </c>
       <c r="H27" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1456,16 +1456,16 @@
         <v>-400</v>
       </c>
       <c r="E32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="H32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-116300</v>
+        <v>-110900</v>
       </c>
       <c r="E33" s="3">
-        <v>-68900</v>
+        <v>-65700</v>
       </c>
       <c r="F33" s="3">
-        <v>-48800</v>
+        <v>-46500</v>
       </c>
       <c r="G33" s="3">
-        <v>-33900</v>
+        <v>-32300</v>
       </c>
       <c r="H33" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-116300</v>
+        <v>-110900</v>
       </c>
       <c r="E35" s="3">
-        <v>-68900</v>
+        <v>-65700</v>
       </c>
       <c r="F35" s="3">
-        <v>-48800</v>
+        <v>-46500</v>
       </c>
       <c r="G35" s="3">
-        <v>-33900</v>
+        <v>-32300</v>
       </c>
       <c r="H35" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>209000</v>
+        <v>199200</v>
       </c>
       <c r="E41" s="3">
-        <v>276800</v>
+        <v>263800</v>
       </c>
       <c r="F41" s="3">
-        <v>13800</v>
+        <v>13100</v>
       </c>
       <c r="G41" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9600</v>
+        <v>9100</v>
       </c>
       <c r="E42" s="3">
-        <v>53600</v>
+        <v>51100</v>
       </c>
       <c r="F42" s="3">
-        <v>46200</v>
+        <v>44100</v>
       </c>
       <c r="G42" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="E43" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="F43" s="3">
-        <v>30500</v>
+        <v>29000</v>
       </c>
       <c r="G43" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="E44" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="F44" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="G44" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="F45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G45" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>265900</v>
+        <v>253500</v>
       </c>
       <c r="E46" s="3">
-        <v>368500</v>
+        <v>351300</v>
       </c>
       <c r="F46" s="3">
-        <v>103200</v>
+        <v>98400</v>
       </c>
       <c r="G46" s="3">
-        <v>42800</v>
+        <v>40800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1857,7 +1857,7 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>59400</v>
+        <v>56600</v>
       </c>
       <c r="E48" s="3">
-        <v>16300</v>
+        <v>15500</v>
       </c>
       <c r="F48" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G48" s="3">
-        <v>10200</v>
+        <v>9700</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,13 +1917,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>500</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>332700</v>
+        <v>317200</v>
       </c>
       <c r="E54" s="3">
-        <v>388900</v>
+        <v>370700</v>
       </c>
       <c r="F54" s="3">
-        <v>123800</v>
+        <v>118000</v>
       </c>
       <c r="G54" s="3">
-        <v>54400</v>
+        <v>51900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="E57" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G57" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,13 +2181,13 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="F58" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="G58" s="3">
-        <v>26100</v>
+        <v>24900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44800</v>
+        <v>42700</v>
       </c>
       <c r="E59" s="3">
-        <v>23200</v>
+        <v>22200</v>
       </c>
       <c r="F59" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="G59" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>54400</v>
+        <v>51800</v>
       </c>
       <c r="E60" s="3">
-        <v>35300</v>
+        <v>33600</v>
       </c>
       <c r="F60" s="3">
-        <v>24000</v>
+        <v>22900</v>
       </c>
       <c r="G60" s="3">
-        <v>41600</v>
+        <v>39600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G61" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8900</v>
+        <v>8500</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63300</v>
+        <v>60300</v>
       </c>
       <c r="E66" s="3">
-        <v>35300</v>
+        <v>33700</v>
       </c>
       <c r="F66" s="3">
-        <v>31000</v>
+        <v>29500</v>
       </c>
       <c r="G66" s="3">
-        <v>55500</v>
+        <v>52900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>223000</v>
+        <v>212600</v>
       </c>
       <c r="G70" s="3">
-        <v>87100</v>
+        <v>83000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-325500</v>
+        <v>-310200</v>
       </c>
       <c r="E72" s="3">
-        <v>-207100</v>
+        <v>-197400</v>
       </c>
       <c r="F72" s="3">
-        <v>-138200</v>
+        <v>-131700</v>
       </c>
       <c r="G72" s="3">
-        <v>-89400</v>
+        <v>-85200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>269500</v>
+        <v>256900</v>
       </c>
       <c r="E76" s="3">
-        <v>353500</v>
+        <v>337000</v>
       </c>
       <c r="F76" s="3">
-        <v>-130200</v>
+        <v>-124100</v>
       </c>
       <c r="G76" s="3">
-        <v>-88200</v>
+        <v>-84000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-116300</v>
+        <v>-110900</v>
       </c>
       <c r="E81" s="3">
-        <v>-68900</v>
+        <v>-65700</v>
       </c>
       <c r="F81" s="3">
-        <v>-48800</v>
+        <v>-46500</v>
       </c>
       <c r="G81" s="3">
-        <v>-33900</v>
+        <v>-32300</v>
       </c>
       <c r="H81" s="3">
-        <v>-26900</v>
+        <v>-25700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="E83" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G83" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H83" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="E89" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="F89" s="3">
-        <v>-33300</v>
+        <v>-31700</v>
       </c>
       <c r="G89" s="3">
-        <v>-21700</v>
+        <v>-20700</v>
       </c>
       <c r="H89" s="3">
-        <v>-19500</v>
+        <v>-18600</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30800</v>
+        <v>-29400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="F91" s="3">
-        <v>-6600</v>
+        <v>-6300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="H91" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="E94" s="3">
-        <v>-16000</v>
+        <v>-15200</v>
       </c>
       <c r="F94" s="3">
-        <v>-50600</v>
+        <v>-48300</v>
       </c>
       <c r="G94" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="H94" s="3">
-        <v>-27900</v>
+        <v>-26600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7700</v>
+        <v>-7400</v>
       </c>
       <c r="E100" s="3">
-        <v>316300</v>
+        <v>301500</v>
       </c>
       <c r="F100" s="3">
-        <v>83500</v>
+        <v>79600</v>
       </c>
       <c r="G100" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="H100" s="3">
-        <v>51700</v>
+        <v>49300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,19 +3464,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-22800</v>
+        <v>-21700</v>
       </c>
       <c r="F101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71000</v>
+        <v>-67700</v>
       </c>
       <c r="E102" s="3">
-        <v>266800</v>
+        <v>254300</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="H102" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -718,19 +718,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>70700</v>
+        <v>72900</v>
       </c>
       <c r="E8" s="3">
-        <v>59800</v>
+        <v>61700</v>
       </c>
       <c r="F8" s="3">
-        <v>53100</v>
+        <v>54800</v>
       </c>
       <c r="G8" s="3">
-        <v>29100</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -751,19 +751,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="E9" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="F9" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="G9" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="H9" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -784,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>50700</v>
+        <v>52300</v>
       </c>
       <c r="E10" s="3">
-        <v>43700</v>
+        <v>45100</v>
       </c>
       <c r="F10" s="3">
-        <v>38000</v>
+        <v>39300</v>
       </c>
       <c r="G10" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="H10" s="3">
-        <v>10000</v>
+        <v>10300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -832,19 +832,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>51200</v>
+        <v>52800</v>
       </c>
       <c r="E12" s="3">
-        <v>36700</v>
+        <v>37900</v>
       </c>
       <c r="F12" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="G12" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="H12" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -976,19 +976,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181600</v>
+        <v>187400</v>
       </c>
       <c r="E17" s="3">
-        <v>117200</v>
+        <v>121000</v>
       </c>
       <c r="F17" s="3">
-        <v>76700</v>
+        <v>79100</v>
       </c>
       <c r="G17" s="3">
-        <v>51500</v>
+        <v>53200</v>
       </c>
       <c r="H17" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1009,19 +1009,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-111000</v>
+        <v>-114500</v>
       </c>
       <c r="E18" s="3">
-        <v>-57400</v>
+        <v>-59200</v>
       </c>
       <c r="F18" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="G18" s="3">
-        <v>-22500</v>
+        <v>-23200</v>
       </c>
       <c r="H18" s="3">
-        <v>-16800</v>
+        <v>-17400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1090,19 +1090,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-104000</v>
+        <v>-107200</v>
       </c>
       <c r="E21" s="3">
-        <v>-52100</v>
+        <v>-53700</v>
       </c>
       <c r="F21" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="G21" s="3">
-        <v>-21300</v>
+        <v>-21900</v>
       </c>
       <c r="H21" s="3">
-        <v>-15300</v>
+        <v>-15800</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1156,19 +1156,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-110800</v>
+        <v>-114300</v>
       </c>
       <c r="E23" s="3">
-        <v>-56700</v>
+        <v>-58500</v>
       </c>
       <c r="F23" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="G23" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="H23" s="3">
-        <v>-18300</v>
+        <v>-18900</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1255,19 +1255,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-110900</v>
+        <v>-114400</v>
       </c>
       <c r="E26" s="3">
-        <v>-56700</v>
+        <v>-58500</v>
       </c>
       <c r="F26" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="G26" s="3">
-        <v>-24700</v>
+        <v>-25500</v>
       </c>
       <c r="H26" s="3">
-        <v>-18300</v>
+        <v>-18900</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1288,19 +1288,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-110900</v>
+        <v>-114400</v>
       </c>
       <c r="E27" s="3">
-        <v>-65700</v>
+        <v>-67800</v>
       </c>
       <c r="F27" s="3">
-        <v>-46500</v>
+        <v>-48000</v>
       </c>
       <c r="G27" s="3">
-        <v>-32300</v>
+        <v>-33400</v>
       </c>
       <c r="H27" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1462,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H32" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1486,19 +1486,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-110900</v>
+        <v>-114400</v>
       </c>
       <c r="E33" s="3">
-        <v>-65700</v>
+        <v>-67800</v>
       </c>
       <c r="F33" s="3">
-        <v>-46500</v>
+        <v>-48000</v>
       </c>
       <c r="G33" s="3">
-        <v>-32300</v>
+        <v>-33400</v>
       </c>
       <c r="H33" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-110900</v>
+        <v>-114400</v>
       </c>
       <c r="E35" s="3">
-        <v>-65700</v>
+        <v>-67800</v>
       </c>
       <c r="F35" s="3">
-        <v>-46500</v>
+        <v>-48000</v>
       </c>
       <c r="G35" s="3">
-        <v>-32300</v>
+        <v>-33400</v>
       </c>
       <c r="H35" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>199200</v>
+        <v>205600</v>
       </c>
       <c r="E41" s="3">
-        <v>263800</v>
+        <v>272200</v>
       </c>
       <c r="F41" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="G41" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="E42" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="F42" s="3">
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="G42" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22000</v>
+        <v>22700</v>
       </c>
       <c r="E43" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="F43" s="3">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="G43" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E44" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="F44" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="G44" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="E45" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F45" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>253500</v>
+        <v>261500</v>
       </c>
       <c r="E46" s="3">
-        <v>351300</v>
+        <v>362400</v>
       </c>
       <c r="F46" s="3">
-        <v>98400</v>
+        <v>101500</v>
       </c>
       <c r="G46" s="3">
-        <v>40800</v>
+        <v>42100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1857,7 +1857,7 @@
         <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56600</v>
+        <v>58400</v>
       </c>
       <c r="E48" s="3">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="F48" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="G48" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>317200</v>
+        <v>327300</v>
       </c>
       <c r="E54" s="3">
-        <v>370700</v>
+        <v>382500</v>
       </c>
       <c r="F54" s="3">
-        <v>118000</v>
+        <v>121700</v>
       </c>
       <c r="G54" s="3">
-        <v>51900</v>
+        <v>53500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,13 +2145,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E57" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
         <v>2300</v>
@@ -2181,13 +2181,13 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="F58" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="G58" s="3">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42700</v>
+        <v>44100</v>
       </c>
       <c r="E59" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="F59" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="G59" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="E60" s="3">
-        <v>33600</v>
+        <v>34700</v>
       </c>
       <c r="F60" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="G60" s="3">
-        <v>39600</v>
+        <v>40900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G61" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,13 +2310,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60300</v>
+        <v>62200</v>
       </c>
       <c r="E66" s="3">
-        <v>33700</v>
+        <v>34800</v>
       </c>
       <c r="F66" s="3">
-        <v>29500</v>
+        <v>30500</v>
       </c>
       <c r="G66" s="3">
-        <v>52900</v>
+        <v>54600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>212600</v>
+        <v>219300</v>
       </c>
       <c r="G70" s="3">
-        <v>83000</v>
+        <v>85600</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-310200</v>
+        <v>-320100</v>
       </c>
       <c r="E72" s="3">
-        <v>-197400</v>
+        <v>-203700</v>
       </c>
       <c r="F72" s="3">
-        <v>-131700</v>
+        <v>-135900</v>
       </c>
       <c r="G72" s="3">
-        <v>-85200</v>
+        <v>-87900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>256900</v>
+        <v>265000</v>
       </c>
       <c r="E76" s="3">
-        <v>337000</v>
+        <v>347700</v>
       </c>
       <c r="F76" s="3">
-        <v>-124100</v>
+        <v>-128000</v>
       </c>
       <c r="G76" s="3">
-        <v>-84000</v>
+        <v>-86700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,19 +2858,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-110900</v>
+        <v>-114400</v>
       </c>
       <c r="E81" s="3">
-        <v>-65700</v>
+        <v>-67800</v>
       </c>
       <c r="F81" s="3">
-        <v>-46500</v>
+        <v>-48000</v>
       </c>
       <c r="G81" s="3">
-        <v>-32300</v>
+        <v>-33400</v>
       </c>
       <c r="H81" s="3">
-        <v>-25700</v>
+        <v>-26500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2906,19 +2906,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E83" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-66500</v>
+        <v>-68600</v>
       </c>
       <c r="E89" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="F89" s="3">
-        <v>-31700</v>
+        <v>-32800</v>
       </c>
       <c r="G89" s="3">
-        <v>-20700</v>
+        <v>-21400</v>
       </c>
       <c r="H89" s="3">
-        <v>-18600</v>
+        <v>-19200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3152,19 +3152,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-29400</v>
+        <v>-30300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3251,19 +3251,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E94" s="3">
-        <v>-15200</v>
+        <v>-15700</v>
       </c>
       <c r="F94" s="3">
-        <v>-48300</v>
+        <v>-49800</v>
       </c>
       <c r="G94" s="3">
-        <v>14800</v>
+        <v>15200</v>
       </c>
       <c r="H94" s="3">
-        <v>-26600</v>
+        <v>-27400</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3431,19 +3431,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="E100" s="3">
-        <v>301500</v>
+        <v>311000</v>
       </c>
       <c r="F100" s="3">
-        <v>79600</v>
+        <v>82100</v>
       </c>
       <c r="G100" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="H100" s="3">
-        <v>49300</v>
+        <v>50900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="E101" s="3">
-        <v>-21700</v>
+        <v>-22400</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
@@ -3497,19 +3497,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-67700</v>
+        <v>-69800</v>
       </c>
       <c r="E102" s="3">
-        <v>254300</v>
+        <v>262400</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="H102" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,43 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,29 +711,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>72900</v>
+        <v>80100</v>
       </c>
       <c r="E8" s="3">
-        <v>61700</v>
+        <v>72200</v>
       </c>
       <c r="F8" s="3">
-        <v>54800</v>
+        <v>61100</v>
       </c>
       <c r="G8" s="3">
-        <v>30000</v>
+        <v>54300</v>
       </c>
       <c r="H8" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>29700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>15800</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -744,29 +747,32 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>20600</v>
+        <v>26000</v>
       </c>
       <c r="E9" s="3">
-        <v>16700</v>
+        <v>20400</v>
       </c>
       <c r="F9" s="3">
-        <v>15600</v>
+        <v>16500</v>
       </c>
       <c r="G9" s="3">
-        <v>10600</v>
+        <v>15400</v>
       </c>
       <c r="H9" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>10500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5600</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -777,29 +783,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>52300</v>
+        <v>54000</v>
       </c>
       <c r="E10" s="3">
-        <v>45100</v>
+        <v>51800</v>
       </c>
       <c r="F10" s="3">
-        <v>39300</v>
+        <v>44600</v>
       </c>
       <c r="G10" s="3">
-        <v>19400</v>
+        <v>38900</v>
       </c>
       <c r="H10" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>19200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,29 +838,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>52800</v>
+        <v>60000</v>
       </c>
       <c r="E12" s="3">
-        <v>37900</v>
+        <v>52300</v>
       </c>
       <c r="F12" s="3">
-        <v>22500</v>
+        <v>37500</v>
       </c>
       <c r="G12" s="3">
-        <v>15100</v>
+        <v>22300</v>
       </c>
       <c r="H12" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I12" s="3">
         <v>7000</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,28 +995,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>187400</v>
+        <v>219400</v>
       </c>
       <c r="E17" s="3">
-        <v>121000</v>
+        <v>185500</v>
       </c>
       <c r="F17" s="3">
-        <v>79100</v>
+        <v>119700</v>
       </c>
       <c r="G17" s="3">
-        <v>53200</v>
+        <v>78300</v>
       </c>
       <c r="H17" s="3">
-        <v>33300</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>52600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>33000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1002,29 +1028,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114500</v>
+        <v>-139400</v>
       </c>
       <c r="E18" s="3">
-        <v>-59200</v>
+        <v>-113300</v>
       </c>
       <c r="F18" s="3">
-        <v>-24300</v>
+        <v>-58600</v>
       </c>
       <c r="G18" s="3">
-        <v>-23200</v>
+        <v>-24000</v>
       </c>
       <c r="H18" s="3">
-        <v>-17400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-22900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-17200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,29 +1083,30 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,29 +1116,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-107200</v>
+        <v>-120000</v>
       </c>
       <c r="E21" s="3">
-        <v>-53700</v>
+        <v>-106100</v>
       </c>
       <c r="F21" s="3">
-        <v>-19800</v>
+        <v>-53100</v>
       </c>
       <c r="G21" s="3">
-        <v>-21900</v>
+        <v>-19600</v>
       </c>
       <c r="H21" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-21700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-15600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1116,18 +1152,21 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,35 +1182,38 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-114300</v>
+        <v>-137800</v>
       </c>
       <c r="E23" s="3">
-        <v>-58500</v>
+        <v>-113100</v>
       </c>
       <c r="F23" s="3">
-        <v>-24300</v>
+        <v>-57900</v>
       </c>
       <c r="G23" s="3">
-        <v>-25500</v>
+        <v>-24000</v>
       </c>
       <c r="H23" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-25200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-18700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1182,18 +1224,21 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1203,21 +1248,24 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,29 +1296,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-114400</v>
+        <v>-138100</v>
       </c>
       <c r="E26" s="3">
-        <v>-58500</v>
+        <v>-113300</v>
       </c>
       <c r="F26" s="3">
-        <v>-24300</v>
+        <v>-57900</v>
       </c>
       <c r="G26" s="3">
-        <v>-25500</v>
+        <v>-24000</v>
       </c>
       <c r="H26" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-25200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-18700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,29 +1332,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-114400</v>
+        <v>-138100</v>
       </c>
       <c r="E27" s="3">
-        <v>-67800</v>
+        <v>-113300</v>
       </c>
       <c r="F27" s="3">
-        <v>-48000</v>
+        <v>-67100</v>
       </c>
       <c r="G27" s="3">
-        <v>-33400</v>
+        <v>-47500</v>
       </c>
       <c r="H27" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-33000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-26200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,30 +1512,33 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,29 +1548,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-114400</v>
+        <v>-138100</v>
       </c>
       <c r="E33" s="3">
-        <v>-67800</v>
+        <v>-113300</v>
       </c>
       <c r="F33" s="3">
-        <v>-48000</v>
+        <v>-67100</v>
       </c>
       <c r="G33" s="3">
-        <v>-33400</v>
+        <v>-47500</v>
       </c>
       <c r="H33" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-33000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-26200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,29 +1620,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-114400</v>
+        <v>-138100</v>
       </c>
       <c r="E35" s="3">
-        <v>-67800</v>
+        <v>-113300</v>
       </c>
       <c r="F35" s="3">
-        <v>-48000</v>
+        <v>-67100</v>
       </c>
       <c r="G35" s="3">
-        <v>-33400</v>
+        <v>-47500</v>
       </c>
       <c r="H35" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-33000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-26200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1578,35 +1656,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>205600</v>
+        <v>128700</v>
       </c>
       <c r="E41" s="3">
-        <v>272200</v>
+        <v>203500</v>
       </c>
       <c r="F41" s="3">
-        <v>13500</v>
+        <v>269400</v>
       </c>
       <c r="G41" s="3">
         <v>13400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>13300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9400</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>52800</v>
+        <v>9300</v>
       </c>
       <c r="F42" s="3">
-        <v>45500</v>
+        <v>52200</v>
       </c>
       <c r="G42" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>45000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>24200</v>
       </c>
       <c r="E43" s="3">
-        <v>21100</v>
+        <v>22400</v>
       </c>
       <c r="F43" s="3">
-        <v>30000</v>
+        <v>20900</v>
       </c>
       <c r="G43" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>29600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>11700</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,27 +1837,30 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="E44" s="3">
-        <v>9800</v>
+        <v>17500</v>
       </c>
       <c r="F44" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G44" s="3">
         <v>8300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6200</v>
+        <v>7200</v>
       </c>
       <c r="E45" s="3">
-        <v>6600</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>261500</v>
+        <v>178900</v>
       </c>
       <c r="E46" s="3">
-        <v>362400</v>
+        <v>258800</v>
       </c>
       <c r="F46" s="3">
-        <v>101500</v>
+        <v>358700</v>
       </c>
       <c r="G46" s="3">
-        <v>42100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>100500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>41600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,27 +1945,30 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>800</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>200</v>
       </c>
-      <c r="F47" s="3">
-        <v>5800</v>
-      </c>
       <c r="G47" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>58400</v>
+        <v>42600</v>
       </c>
       <c r="E48" s="3">
-        <v>16000</v>
+        <v>57800</v>
       </c>
       <c r="F48" s="3">
-        <v>12800</v>
+        <v>15800</v>
       </c>
       <c r="G48" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>12700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>9900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,27 +2017,30 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,27 +2125,30 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F52" s="3">
         <v>3300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>327300</v>
+        <v>225700</v>
       </c>
       <c r="E54" s="3">
-        <v>382500</v>
+        <v>323900</v>
       </c>
       <c r="F54" s="3">
-        <v>121700</v>
+        <v>378500</v>
       </c>
       <c r="G54" s="3">
-        <v>53500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>120500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>53000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,26 +2268,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9100</v>
+        <v>7200</v>
       </c>
       <c r="E57" s="3">
-        <v>5100</v>
+        <v>9000</v>
       </c>
       <c r="F57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6700</v>
       </c>
-      <c r="F58" s="3">
-        <v>6400</v>
-      </c>
       <c r="G58" s="3">
-        <v>25700</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>6300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>25400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44100</v>
+        <v>51200</v>
       </c>
       <c r="E59" s="3">
-        <v>22900</v>
+        <v>43600</v>
       </c>
       <c r="F59" s="3">
-        <v>15500</v>
+        <v>22600</v>
       </c>
       <c r="G59" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>12700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53500</v>
+        <v>58500</v>
       </c>
       <c r="E60" s="3">
-        <v>34700</v>
+        <v>52900</v>
       </c>
       <c r="F60" s="3">
-        <v>23600</v>
+        <v>34300</v>
       </c>
       <c r="G60" s="3">
-        <v>40900</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>23400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>40500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,9 +2409,12 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2283,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>3300</v>
       </c>
-      <c r="G61" s="3">
-        <v>13400</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,27 +2445,30 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8800</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62200</v>
+        <v>61000</v>
       </c>
       <c r="E66" s="3">
-        <v>34800</v>
+        <v>61600</v>
       </c>
       <c r="F66" s="3">
-        <v>30500</v>
+        <v>34400</v>
       </c>
       <c r="G66" s="3">
-        <v>54600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>30100</v>
+      </c>
+      <c r="H66" s="3">
+        <v>54000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2562,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>219300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>85600</v>
+        <v>217100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>84700</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-320100</v>
+        <v>-454900</v>
       </c>
       <c r="E72" s="3">
-        <v>-203700</v>
+        <v>-316800</v>
       </c>
       <c r="F72" s="3">
-        <v>-135900</v>
+        <v>-201600</v>
       </c>
       <c r="G72" s="3">
-        <v>-87900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-134500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-87000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>265000</v>
+        <v>164700</v>
       </c>
       <c r="E76" s="3">
-        <v>347700</v>
+        <v>262300</v>
       </c>
       <c r="F76" s="3">
-        <v>-128000</v>
+        <v>344100</v>
       </c>
       <c r="G76" s="3">
-        <v>-86700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-126800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-85700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,35 +3001,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,29 +3042,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-114400</v>
+        <v>-138100</v>
       </c>
       <c r="E81" s="3">
-        <v>-67800</v>
+        <v>-113300</v>
       </c>
       <c r="F81" s="3">
-        <v>-48000</v>
+        <v>-67100</v>
       </c>
       <c r="G81" s="3">
-        <v>-33400</v>
+        <v>-47500</v>
       </c>
       <c r="H81" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-33000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-26200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,28 +3097,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6900</v>
+        <v>17600</v>
       </c>
       <c r="E83" s="3">
-        <v>4800</v>
+        <v>6800</v>
       </c>
       <c r="F83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G83" s="3">
         <v>4500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="H83" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>3000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,29 +3310,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-68600</v>
+        <v>-64900</v>
       </c>
       <c r="E89" s="3">
-        <v>-10600</v>
+        <v>-67900</v>
       </c>
       <c r="F89" s="3">
-        <v>-32800</v>
+        <v>-10500</v>
       </c>
       <c r="G89" s="3">
-        <v>-21400</v>
+        <v>-32400</v>
       </c>
       <c r="H89" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-21100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-19000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,29 +3365,30 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30300</v>
+        <v>-10700</v>
       </c>
       <c r="E91" s="3">
-        <v>-10900</v>
+        <v>-30000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6500</v>
+        <v>-10700</v>
       </c>
       <c r="G91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,29 +3470,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11700</v>
+        <v>-1100</v>
       </c>
       <c r="E94" s="3">
-        <v>-15700</v>
+        <v>11600</v>
       </c>
       <c r="F94" s="3">
-        <v>-49800</v>
+        <v>-15500</v>
       </c>
       <c r="G94" s="3">
-        <v>15200</v>
+        <v>-49300</v>
       </c>
       <c r="H94" s="3">
-        <v>-27400</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>15100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-27200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,29 +3666,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7600</v>
+        <v>-12300</v>
       </c>
       <c r="E100" s="3">
-        <v>311000</v>
+        <v>-7500</v>
       </c>
       <c r="F100" s="3">
-        <v>82100</v>
+        <v>307900</v>
       </c>
       <c r="G100" s="3">
-        <v>12000</v>
+        <v>81300</v>
       </c>
       <c r="H100" s="3">
-        <v>50900</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="I100" s="3">
+        <v>50300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3457,30 +3702,33 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-22400</v>
-      </c>
       <c r="F101" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,30 +3738,33 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-69800</v>
+        <v>-73000</v>
       </c>
       <c r="E102" s="3">
-        <v>262400</v>
+        <v>-69100</v>
       </c>
       <c r="F102" s="3">
+        <v>259700</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2600</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -721,22 +721,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>80100</v>
+        <v>77600</v>
       </c>
       <c r="E8" s="3">
-        <v>72200</v>
+        <v>70000</v>
       </c>
       <c r="F8" s="3">
-        <v>61100</v>
+        <v>59200</v>
       </c>
       <c r="G8" s="3">
-        <v>54300</v>
+        <v>52600</v>
       </c>
       <c r="H8" s="3">
-        <v>29700</v>
+        <v>28800</v>
       </c>
       <c r="I8" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -757,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="E9" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="F9" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="G9" s="3">
-        <v>15400</v>
+        <v>14900</v>
       </c>
       <c r="H9" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="I9" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,22 +793,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>54000</v>
+        <v>52400</v>
       </c>
       <c r="E10" s="3">
-        <v>51800</v>
+        <v>50200</v>
       </c>
       <c r="F10" s="3">
-        <v>44600</v>
+        <v>43300</v>
       </c>
       <c r="G10" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="H10" s="3">
-        <v>19200</v>
+        <v>18600</v>
       </c>
       <c r="I10" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -845,22 +845,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>60000</v>
+        <v>58100</v>
       </c>
       <c r="E12" s="3">
-        <v>52300</v>
+        <v>50700</v>
       </c>
       <c r="F12" s="3">
-        <v>37500</v>
+        <v>36400</v>
       </c>
       <c r="G12" s="3">
-        <v>22300</v>
+        <v>21600</v>
       </c>
       <c r="H12" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="I12" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -1002,22 +1002,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>219400</v>
+        <v>212700</v>
       </c>
       <c r="E17" s="3">
-        <v>185500</v>
+        <v>179800</v>
       </c>
       <c r="F17" s="3">
-        <v>119700</v>
+        <v>116100</v>
       </c>
       <c r="G17" s="3">
-        <v>78300</v>
+        <v>75900</v>
       </c>
       <c r="H17" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="I17" s="3">
-        <v>33000</v>
+        <v>32000</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1038,22 +1038,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-139400</v>
+        <v>-135100</v>
       </c>
       <c r="E18" s="3">
-        <v>-113300</v>
+        <v>-109800</v>
       </c>
       <c r="F18" s="3">
-        <v>-58600</v>
+        <v>-56800</v>
       </c>
       <c r="G18" s="3">
-        <v>-24000</v>
+        <v>-23300</v>
       </c>
       <c r="H18" s="3">
-        <v>-22900</v>
+        <v>-22200</v>
       </c>
       <c r="I18" s="3">
-        <v>-17200</v>
+        <v>-16700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1090,7 +1090,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1126,22 +1126,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-120000</v>
+        <v>-116400</v>
       </c>
       <c r="E21" s="3">
-        <v>-106100</v>
+        <v>-102900</v>
       </c>
       <c r="F21" s="3">
-        <v>-53100</v>
+        <v>-51500</v>
       </c>
       <c r="G21" s="3">
-        <v>-19600</v>
+        <v>-19000</v>
       </c>
       <c r="H21" s="3">
-        <v>-21700</v>
+        <v>-21100</v>
       </c>
       <c r="I21" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1198,22 +1198,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-137800</v>
+        <v>-133500</v>
       </c>
       <c r="E23" s="3">
-        <v>-113100</v>
+        <v>-109600</v>
       </c>
       <c r="F23" s="3">
-        <v>-57900</v>
+        <v>-56100</v>
       </c>
       <c r="G23" s="3">
-        <v>-24000</v>
+        <v>-23300</v>
       </c>
       <c r="H23" s="3">
-        <v>-25200</v>
+        <v>-24500</v>
       </c>
       <c r="I23" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1306,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-138100</v>
+        <v>-133800</v>
       </c>
       <c r="E26" s="3">
-        <v>-113300</v>
+        <v>-109800</v>
       </c>
       <c r="F26" s="3">
-        <v>-57900</v>
+        <v>-56100</v>
       </c>
       <c r="G26" s="3">
-        <v>-24000</v>
+        <v>-23300</v>
       </c>
       <c r="H26" s="3">
-        <v>-25200</v>
+        <v>-24500</v>
       </c>
       <c r="I26" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-138100</v>
+        <v>-133800</v>
       </c>
       <c r="E27" s="3">
-        <v>-113300</v>
+        <v>-109800</v>
       </c>
       <c r="F27" s="3">
-        <v>-67100</v>
+        <v>-65000</v>
       </c>
       <c r="G27" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="H27" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="I27" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1522,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-138100</v>
+        <v>-133800</v>
       </c>
       <c r="E33" s="3">
-        <v>-113300</v>
+        <v>-109800</v>
       </c>
       <c r="F33" s="3">
-        <v>-67100</v>
+        <v>-65000</v>
       </c>
       <c r="G33" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="H33" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="I33" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-138100</v>
+        <v>-133800</v>
       </c>
       <c r="E35" s="3">
-        <v>-113300</v>
+        <v>-109800</v>
       </c>
       <c r="F35" s="3">
-        <v>-67100</v>
+        <v>-65000</v>
       </c>
       <c r="G35" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="H35" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="I35" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>128700</v>
+        <v>124800</v>
       </c>
       <c r="E41" s="3">
-        <v>203500</v>
+        <v>197200</v>
       </c>
       <c r="F41" s="3">
-        <v>269400</v>
+        <v>261100</v>
       </c>
       <c r="G41" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="H41" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1778,16 +1778,16 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="F42" s="3">
-        <v>52200</v>
+        <v>50600</v>
       </c>
       <c r="G42" s="3">
-        <v>45000</v>
+        <v>43600</v>
       </c>
       <c r="H42" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="E43" s="3">
-        <v>22400</v>
+        <v>21800</v>
       </c>
       <c r="F43" s="3">
-        <v>20900</v>
+        <v>20300</v>
       </c>
       <c r="G43" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="H43" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="E44" s="3">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="F44" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="G44" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="H44" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E45" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F45" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G45" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="H45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>178900</v>
+        <v>173400</v>
       </c>
       <c r="E46" s="3">
-        <v>258800</v>
+        <v>250900</v>
       </c>
       <c r="F46" s="3">
-        <v>358700</v>
+        <v>347700</v>
       </c>
       <c r="G46" s="3">
-        <v>100500</v>
+        <v>97400</v>
       </c>
       <c r="H46" s="3">
-        <v>41600</v>
+        <v>40400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1964,7 +1964,7 @@
         <v>200</v>
       </c>
       <c r="G47" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="E48" s="3">
-        <v>57800</v>
+        <v>56000</v>
       </c>
       <c r="F48" s="3">
-        <v>15800</v>
+        <v>15400</v>
       </c>
       <c r="G48" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="H48" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2135,16 +2135,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
         <v>1100</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>225700</v>
+        <v>218700</v>
       </c>
       <c r="E54" s="3">
-        <v>323900</v>
+        <v>313900</v>
       </c>
       <c r="F54" s="3">
-        <v>378500</v>
+        <v>366900</v>
       </c>
       <c r="G54" s="3">
-        <v>120500</v>
+        <v>116800</v>
       </c>
       <c r="H54" s="3">
-        <v>53000</v>
+        <v>51300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="E57" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2317,13 +2317,13 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G58" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H58" s="3">
-        <v>25400</v>
+        <v>24700</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51200</v>
+        <v>49700</v>
       </c>
       <c r="E59" s="3">
-        <v>43600</v>
+        <v>42300</v>
       </c>
       <c r="F59" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="G59" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="H59" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58500</v>
+        <v>56700</v>
       </c>
       <c r="E60" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="F60" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="G60" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="H60" s="3">
-        <v>40500</v>
+        <v>39200</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2428,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H61" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>61000</v>
+        <v>59100</v>
       </c>
       <c r="E66" s="3">
-        <v>61600</v>
+        <v>59700</v>
       </c>
       <c r="F66" s="3">
-        <v>34400</v>
+        <v>33300</v>
       </c>
       <c r="G66" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="H66" s="3">
-        <v>54000</v>
+        <v>52400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>217100</v>
+        <v>210400</v>
       </c>
       <c r="H70" s="3">
-        <v>84700</v>
+        <v>82100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-454900</v>
+        <v>-440900</v>
       </c>
       <c r="E72" s="3">
-        <v>-316800</v>
+        <v>-307100</v>
       </c>
       <c r="F72" s="3">
-        <v>-201600</v>
+        <v>-195400</v>
       </c>
       <c r="G72" s="3">
-        <v>-134500</v>
+        <v>-130400</v>
       </c>
       <c r="H72" s="3">
-        <v>-87000</v>
+        <v>-84300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>164700</v>
+        <v>159600</v>
       </c>
       <c r="E76" s="3">
-        <v>262300</v>
+        <v>254200</v>
       </c>
       <c r="F76" s="3">
-        <v>344100</v>
+        <v>333600</v>
       </c>
       <c r="G76" s="3">
-        <v>-126800</v>
+        <v>-122800</v>
       </c>
       <c r="H76" s="3">
-        <v>-85700</v>
+        <v>-83100</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-138100</v>
+        <v>-133800</v>
       </c>
       <c r="E81" s="3">
-        <v>-113300</v>
+        <v>-109800</v>
       </c>
       <c r="F81" s="3">
-        <v>-67100</v>
+        <v>-65000</v>
       </c>
       <c r="G81" s="3">
-        <v>-47500</v>
+        <v>-46000</v>
       </c>
       <c r="H81" s="3">
-        <v>-33000</v>
+        <v>-32000</v>
       </c>
       <c r="I81" s="3">
-        <v>-26200</v>
+        <v>-25400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="E83" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="F83" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="G83" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I83" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-64900</v>
+        <v>-62900</v>
       </c>
       <c r="E89" s="3">
-        <v>-67900</v>
+        <v>-65800</v>
       </c>
       <c r="F89" s="3">
-        <v>-10500</v>
+        <v>-10100</v>
       </c>
       <c r="G89" s="3">
-        <v>-32400</v>
+        <v>-31400</v>
       </c>
       <c r="H89" s="3">
-        <v>-21100</v>
+        <v>-20500</v>
       </c>
       <c r="I89" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E91" s="3">
-        <v>-30000</v>
+        <v>-29100</v>
       </c>
       <c r="F91" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="G91" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="F94" s="3">
-        <v>-15500</v>
+        <v>-15100</v>
       </c>
       <c r="G94" s="3">
-        <v>-49300</v>
+        <v>-47800</v>
       </c>
       <c r="H94" s="3">
-        <v>15100</v>
+        <v>14600</v>
       </c>
       <c r="I94" s="3">
-        <v>-27200</v>
+        <v>-26300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3676,22 +3676,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="F100" s="3">
-        <v>307900</v>
+        <v>298400</v>
       </c>
       <c r="G100" s="3">
-        <v>81300</v>
+        <v>78800</v>
       </c>
       <c r="H100" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="I100" s="3">
-        <v>50300</v>
+        <v>48800</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3712,13 +3712,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="F101" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
@@ -3748,22 +3748,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-73000</v>
+        <v>-70800</v>
       </c>
       <c r="E102" s="3">
-        <v>-69100</v>
+        <v>-67000</v>
       </c>
       <c r="F102" s="3">
-        <v>259700</v>
+        <v>251700</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
       </c>
       <c r="H102" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I102" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BNR_YR_FIN.xlsx
@@ -721,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>77600</v>
+        <v>77800</v>
       </c>
       <c r="E8" s="3">
-        <v>70000</v>
+        <v>70100</v>
       </c>
       <c r="F8" s="3">
-        <v>59200</v>
+        <v>59400</v>
       </c>
       <c r="G8" s="3">
-        <v>52600</v>
+        <v>52700</v>
       </c>
       <c r="H8" s="3">
         <v>28800</v>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>25200</v>
+        <v>25300</v>
       </c>
       <c r="E9" s="3">
         <v>19800</v>
@@ -766,13 +766,13 @@
         <v>16000</v>
       </c>
       <c r="G9" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="3">
         <v>10200</v>
       </c>
       <c r="I9" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -793,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="E10" s="3">
-        <v>50200</v>
+        <v>50300</v>
       </c>
       <c r="F10" s="3">
         <v>43300</v>
@@ -845,16 +845,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58100</v>
+        <v>58300</v>
       </c>
       <c r="E12" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="F12" s="3">
         <v>36400</v>
       </c>
       <c r="G12" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="H12" s="3">
         <v>14500</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>212700</v>
+        <v>213100</v>
       </c>
       <c r="E17" s="3">
-        <v>179800</v>
+        <v>180200</v>
       </c>
       <c r="F17" s="3">
-        <v>116100</v>
+        <v>116300</v>
       </c>
       <c r="G17" s="3">
-        <v>75900</v>
+        <v>76100</v>
       </c>
       <c r="H17" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="I17" s="3">
         <v>32000</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-135100</v>
+        <v>-135400</v>
       </c>
       <c r="E18" s="3">
-        <v>-109800</v>
+        <v>-110100</v>
       </c>
       <c r="F18" s="3">
-        <v>-56800</v>
+        <v>-56900</v>
       </c>
       <c r="G18" s="3">
         <v>-23300</v>
       </c>
       <c r="H18" s="3">
-        <v>-22200</v>
+        <v>-22300</v>
       </c>
       <c r="I18" s="3">
         <v>-16700</v>
@@ -1126,13 +1126,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-116400</v>
+        <v>-116700</v>
       </c>
       <c r="E21" s="3">
-        <v>-102900</v>
+        <v>-103100</v>
       </c>
       <c r="F21" s="3">
-        <v>-51500</v>
+        <v>-51600</v>
       </c>
       <c r="G21" s="3">
         <v>-19000</v>
@@ -1198,16 +1198,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-133500</v>
+        <v>-133800</v>
       </c>
       <c r="E23" s="3">
-        <v>-109600</v>
+        <v>-109900</v>
       </c>
       <c r="F23" s="3">
-        <v>-56100</v>
+        <v>-56200</v>
       </c>
       <c r="G23" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="H23" s="3">
         <v>-24500</v>
@@ -1306,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-133800</v>
+        <v>-134100</v>
       </c>
       <c r="E26" s="3">
-        <v>-109800</v>
+        <v>-110000</v>
       </c>
       <c r="F26" s="3">
-        <v>-56100</v>
+        <v>-56200</v>
       </c>
       <c r="G26" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="H26" s="3">
         <v>-24500</v>
@@ -1342,22 +1342,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-133800</v>
+        <v>-134100</v>
       </c>
       <c r="E27" s="3">
-        <v>-109800</v>
+        <v>-110000</v>
       </c>
       <c r="F27" s="3">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="G27" s="3">
-        <v>-46000</v>
+        <v>-46100</v>
       </c>
       <c r="H27" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="I27" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1558,22 +1558,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-133800</v>
+        <v>-134100</v>
       </c>
       <c r="E33" s="3">
-        <v>-109800</v>
+        <v>-110000</v>
       </c>
       <c r="F33" s="3">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="G33" s="3">
-        <v>-46000</v>
+        <v>-46100</v>
       </c>
       <c r="H33" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="I33" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1630,22 +1630,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-133800</v>
+        <v>-134100</v>
       </c>
       <c r="E35" s="3">
-        <v>-109800</v>
+        <v>-110000</v>
       </c>
       <c r="F35" s="3">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="G35" s="3">
-        <v>-46000</v>
+        <v>-46100</v>
       </c>
       <c r="H35" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="I35" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1739,13 +1739,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124800</v>
+        <v>125000</v>
       </c>
       <c r="E41" s="3">
-        <v>197200</v>
+        <v>197600</v>
       </c>
       <c r="F41" s="3">
-        <v>261100</v>
+        <v>261700</v>
       </c>
       <c r="G41" s="3">
         <v>13000</v>
@@ -1778,13 +1778,13 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F42" s="3">
-        <v>50600</v>
+        <v>50700</v>
       </c>
       <c r="G42" s="3">
-        <v>43600</v>
+        <v>43700</v>
       </c>
       <c r="H42" s="3">
         <v>5900</v>
@@ -1820,7 +1820,7 @@
         <v>20300</v>
       </c>
       <c r="G43" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="H43" s="3">
         <v>11400</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>173400</v>
+        <v>173800</v>
       </c>
       <c r="E46" s="3">
-        <v>250900</v>
+        <v>251400</v>
       </c>
       <c r="F46" s="3">
-        <v>347700</v>
+        <v>348500</v>
       </c>
       <c r="G46" s="3">
-        <v>97400</v>
+        <v>97600</v>
       </c>
       <c r="H46" s="3">
-        <v>40400</v>
+        <v>40500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,10 +1991,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41300</v>
+        <v>41400</v>
       </c>
       <c r="E48" s="3">
-        <v>56000</v>
+        <v>56100</v>
       </c>
       <c r="F48" s="3">
         <v>15400</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>218700</v>
+        <v>219200</v>
       </c>
       <c r="E54" s="3">
-        <v>313900</v>
+        <v>314600</v>
       </c>
       <c r="F54" s="3">
-        <v>366900</v>
+        <v>367700</v>
       </c>
       <c r="G54" s="3">
-        <v>116800</v>
+        <v>117000</v>
       </c>
       <c r="H54" s="3">
-        <v>51300</v>
+        <v>51500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49700</v>
+        <v>49800</v>
       </c>
       <c r="E59" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="F59" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="G59" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H59" s="3">
-        <v>12300</v>
+        <v>12400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56700</v>
+        <v>56800</v>
       </c>
       <c r="E60" s="3">
-        <v>51300</v>
+        <v>51400</v>
       </c>
       <c r="F60" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="G60" s="3">
         <v>22700</v>
       </c>
       <c r="H60" s="3">
-        <v>39200</v>
+        <v>39300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59100</v>
+        <v>59300</v>
       </c>
       <c r="E66" s="3">
-        <v>59700</v>
+        <v>59800</v>
       </c>
       <c r="F66" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="G66" s="3">
-        <v>29200</v>
+        <v>29300</v>
       </c>
       <c r="H66" s="3">
-        <v>52400</v>
+        <v>52500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>210400</v>
+        <v>210900</v>
       </c>
       <c r="H70" s="3">
-        <v>82100</v>
+        <v>82300</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-440900</v>
+        <v>-441800</v>
       </c>
       <c r="E72" s="3">
-        <v>-307100</v>
+        <v>-307700</v>
       </c>
       <c r="F72" s="3">
-        <v>-195400</v>
+        <v>-195800</v>
       </c>
       <c r="G72" s="3">
-        <v>-130400</v>
+        <v>-130700</v>
       </c>
       <c r="H72" s="3">
-        <v>-84300</v>
+        <v>-84500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>159600</v>
+        <v>159900</v>
       </c>
       <c r="E76" s="3">
-        <v>254200</v>
+        <v>254800</v>
       </c>
       <c r="F76" s="3">
-        <v>333600</v>
+        <v>334300</v>
       </c>
       <c r="G76" s="3">
-        <v>-122800</v>
+        <v>-123100</v>
       </c>
       <c r="H76" s="3">
-        <v>-83100</v>
+        <v>-83300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,22 +3052,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-133800</v>
+        <v>-134100</v>
       </c>
       <c r="E81" s="3">
-        <v>-109800</v>
+        <v>-110000</v>
       </c>
       <c r="F81" s="3">
-        <v>-65000</v>
+        <v>-65200</v>
       </c>
       <c r="G81" s="3">
-        <v>-46000</v>
+        <v>-46100</v>
       </c>
       <c r="H81" s="3">
-        <v>-32000</v>
+        <v>-32100</v>
       </c>
       <c r="I81" s="3">
-        <v>-25400</v>
+        <v>-25500</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3320,22 +3320,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-62900</v>
+        <v>-63100</v>
       </c>
       <c r="E89" s="3">
-        <v>-65800</v>
+        <v>-66000</v>
       </c>
       <c r="F89" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="G89" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="H89" s="3">
         <v>-20500</v>
       </c>
       <c r="I89" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3381,7 +3381,7 @@
         <v>-10400</v>
       </c>
       <c r="G91" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="H91" s="3">
         <v>-3400</v>
@@ -3489,13 +3489,13 @@
         <v>-15100</v>
       </c>
       <c r="G94" s="3">
-        <v>-47800</v>
+        <v>-47900</v>
       </c>
       <c r="H94" s="3">
         <v>14600</v>
       </c>
       <c r="I94" s="3">
-        <v>-26300</v>
+        <v>-26400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3682,16 +3682,16 @@
         <v>-7300</v>
       </c>
       <c r="F100" s="3">
-        <v>298400</v>
+        <v>299000</v>
       </c>
       <c r="G100" s="3">
-        <v>78800</v>
+        <v>78900</v>
       </c>
       <c r="H100" s="3">
         <v>11500</v>
       </c>
       <c r="I100" s="3">
-        <v>48800</v>
+        <v>48900</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3748,13 +3748,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70800</v>
+        <v>-71000</v>
       </c>
       <c r="E102" s="3">
-        <v>-67000</v>
+        <v>-67100</v>
       </c>
       <c r="F102" s="3">
-        <v>251700</v>
+        <v>252300</v>
       </c>
       <c r="G102" s="3">
         <v>400</v>
